--- a/polars.xlsx
+++ b/polars.xlsx
@@ -539,7 +539,7 @@
         <v>7.7</v>
       </c>
       <c r="M2" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="N2" t="n">
         <v>10.9</v>
@@ -671,10 +671,10 @@
         <v>8.9</v>
       </c>
       <c r="M5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="N5" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
         <v>7.5</v>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
         <v>8.699999999999999</v>
@@ -715,7 +715,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="N6" t="n">
         <v>11.2</v>
@@ -759,7 +759,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N7" t="n">
         <v>11.3</v>
@@ -803,7 +803,7 @@
         <v>10.1</v>
       </c>
       <c r="M8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N8" t="n">
         <v>11.4</v>
@@ -847,7 +847,7 @@
         <v>10.5</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="N9" t="n">
         <v>11.5</v>
@@ -861,7 +861,7 @@
         <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="n">
         <v>5.3</v>
@@ -891,7 +891,7 @@
         <v>10.9</v>
       </c>
       <c r="M10" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="N10" t="n">
         <v>11.6</v>
@@ -917,7 +917,7 @@
         <v>7.5</v>
       </c>
       <c r="G11" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>9.1</v>
@@ -932,10 +932,10 @@
         <v>11.9</v>
       </c>
       <c r="L11" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="M11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="N11" t="n">
         <v>11.7</v>
@@ -967,19 +967,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="J12" t="n">
         <v>11.7</v>
       </c>
       <c r="K12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="L12" t="n">
         <v>11.6</v>
       </c>
       <c r="M12" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="N12" t="n">
         <v>11.8</v>
@@ -1020,10 +1020,10 @@
         <v>12.6</v>
       </c>
       <c r="L13" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="N13" t="n">
         <v>11.9</v>
@@ -1067,7 +1067,7 @@
         <v>12.3</v>
       </c>
       <c r="M14" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
         <v>12</v>
@@ -1111,7 +1111,7 @@
         <v>12.6</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="N15" t="n">
         <v>12.1</v>
@@ -1134,13 +1134,13 @@
         <v>6.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G16" t="n">
         <v>9.1</v>
       </c>
       <c r="H16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I16" t="n">
         <v>11.1</v>
@@ -1187,10 +1187,10 @@
         <v>9.9</v>
       </c>
       <c r="I17" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="J17" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="K17" t="n">
         <v>13.7</v>
@@ -1199,7 +1199,7 @@
         <v>13.2</v>
       </c>
       <c r="M17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
         <v>12.4</v>
@@ -1243,7 +1243,7 @@
         <v>13.5</v>
       </c>
       <c r="M18" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="N18" t="n">
         <v>12.5</v>
@@ -1287,7 +1287,7 @@
         <v>13.8</v>
       </c>
       <c r="M19" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N19" t="n">
         <v>12.7</v>
@@ -1307,10 +1307,10 @@
         <v>5.1</v>
       </c>
       <c r="E20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F20" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="G20" t="n">
         <v>9.699999999999999</v>
@@ -1331,7 +1331,7 @@
         <v>14.1</v>
       </c>
       <c r="M20" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N20" t="n">
         <v>12.8</v>
@@ -1416,10 +1416,10 @@
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="M22" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N22" t="n">
         <v>13.2</v>
@@ -1463,7 +1463,7 @@
         <v>14.9</v>
       </c>
       <c r="M23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N23" t="n">
         <v>13.3</v>
@@ -1483,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="F24" t="n">
         <v>8.800000000000001</v>
@@ -1504,10 +1504,10 @@
         <v>15.5</v>
       </c>
       <c r="L24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="M24" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="N24" t="n">
         <v>13.5</v>
@@ -1636,7 +1636,7 @@
         <v>16.1</v>
       </c>
       <c r="L27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="M27" t="n">
         <v>14.8</v>
@@ -1709,7 +1709,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="H29" t="n">
         <v>11.9</v>
@@ -1727,7 +1727,7 @@
         <v>16.3</v>
       </c>
       <c r="M29" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N29" t="n">
         <v>14.5</v>
@@ -1841,7 +1841,7 @@
         <v>9.5</v>
       </c>
       <c r="G32" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="H32" t="n">
         <v>12.5</v>
@@ -1859,7 +1859,7 @@
         <v>16.9</v>
       </c>
       <c r="M32" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N32" t="n">
         <v>15.2</v>
@@ -1973,10 +1973,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="I35" t="n">
         <v>15.5</v>
@@ -1991,7 +1991,7 @@
         <v>17.5</v>
       </c>
       <c r="M35" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N35" t="n">
         <v>15.9</v>
@@ -2035,7 +2035,7 @@
         <v>17.7</v>
       </c>
       <c r="M36" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N36" t="n">
         <v>16.2</v>
@@ -2076,10 +2076,10 @@
         <v>18</v>
       </c>
       <c r="L37" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="M37" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N37" t="n">
         <v>16.4</v>
@@ -2099,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="F38" t="n">
         <v>10</v>
@@ -2123,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="M38" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N38" t="n">
         <v>16.7</v>
@@ -2167,7 +2167,7 @@
         <v>18.2</v>
       </c>
       <c r="M39" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N39" t="n">
         <v>16.9</v>
@@ -2211,7 +2211,7 @@
         <v>18.4</v>
       </c>
       <c r="M40" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="N40" t="n">
         <v>17.2</v>
@@ -2252,10 +2252,10 @@
         <v>18.7</v>
       </c>
       <c r="L41" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="M41" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="N41" t="n">
         <v>17.5</v>
@@ -2287,7 +2287,7 @@
         <v>14.5</v>
       </c>
       <c r="I42" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="J42" t="n">
         <v>18.2</v>
@@ -2299,7 +2299,7 @@
         <v>18.7</v>
       </c>
       <c r="M42" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N42" t="n">
         <v>17.7</v>
@@ -2343,7 +2343,7 @@
         <v>18.9</v>
       </c>
       <c r="M43" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N43" t="n">
         <v>18</v>
@@ -2384,10 +2384,10 @@
         <v>19.2</v>
       </c>
       <c r="L44" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="M44" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N44" t="n">
         <v>18.3</v>
@@ -2401,7 +2401,7 @@
         <v>73</v>
       </c>
       <c r="C45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="n">
         <v>5.1</v>
@@ -2413,7 +2413,7 @@
         <v>10.5</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="H45" t="n">
         <v>15.1</v>
@@ -2431,7 +2431,7 @@
         <v>19.2</v>
       </c>
       <c r="M45" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N45" t="n">
         <v>18.5</v>
@@ -2475,7 +2475,7 @@
         <v>19.4</v>
       </c>
       <c r="M46" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N46" t="n">
         <v>18.8</v>
@@ -2516,10 +2516,10 @@
         <v>19.7</v>
       </c>
       <c r="L47" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="M47" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N47" t="n">
         <v>19.1</v>
@@ -2560,10 +2560,10 @@
         <v>19.9</v>
       </c>
       <c r="L48" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="M48" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N48" t="n">
         <v>19.3</v>
@@ -2607,7 +2607,7 @@
         <v>19.9</v>
       </c>
       <c r="M49" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N49" t="n">
         <v>19.6</v>
@@ -2648,10 +2648,10 @@
         <v>20.2</v>
       </c>
       <c r="L50" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="M50" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N50" t="n">
         <v>19.8</v>
@@ -2686,16 +2686,16 @@
         <v>18.9</v>
       </c>
       <c r="J51" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="K51" t="n">
         <v>20.4</v>
       </c>
       <c r="L51" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="M51" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N51" t="n">
         <v>20.1</v>
@@ -2727,7 +2727,7 @@
         <v>16.5</v>
       </c>
       <c r="I52" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="J52" t="n">
         <v>20</v>
@@ -2739,7 +2739,7 @@
         <v>20.4</v>
       </c>
       <c r="M52" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N52" t="n">
         <v>20.3</v>
@@ -2765,13 +2765,13 @@
         <v>11.1</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="H53" t="n">
         <v>16.7</v>
       </c>
       <c r="I53" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="J53" t="n">
         <v>20.2</v>
@@ -2780,10 +2780,10 @@
         <v>20.7</v>
       </c>
       <c r="L53" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="M53" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N53" t="n">
         <v>20.6</v>
@@ -2824,10 +2824,10 @@
         <v>20.9</v>
       </c>
       <c r="L54" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="M54" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N54" t="n">
         <v>20.8</v>
@@ -2847,7 +2847,7 @@
         <v>5.4</v>
       </c>
       <c r="E55" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="F55" t="n">
         <v>11.3</v>
@@ -2871,7 +2871,7 @@
         <v>20.9</v>
       </c>
       <c r="M55" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N55" t="n">
         <v>21.1</v>
@@ -2912,10 +2912,10 @@
         <v>21.3</v>
       </c>
       <c r="L56" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="M56" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N56" t="n">
         <v>21.3</v>
@@ -2947,7 +2947,7 @@
         <v>17.5</v>
       </c>
       <c r="I57" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="J57" t="n">
         <v>21</v>
@@ -2956,10 +2956,10 @@
         <v>21.4</v>
       </c>
       <c r="L57" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="M57" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N57" t="n">
         <v>21.5</v>
@@ -3003,7 +3003,7 @@
         <v>21.4</v>
       </c>
       <c r="M58" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N58" t="n">
         <v>21.8</v>
@@ -3017,7 +3017,7 @@
         <v>87</v>
       </c>
       <c r="C59" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="n">
         <v>5.4</v>
@@ -3047,7 +3047,7 @@
         <v>21.6</v>
       </c>
       <c r="M59" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N59" t="n">
         <v>22</v>
@@ -3067,7 +3067,7 @@
         <v>5.4</v>
       </c>
       <c r="E60" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F60" t="n">
         <v>11.6</v>
@@ -3088,10 +3088,10 @@
         <v>22</v>
       </c>
       <c r="L60" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="M60" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N60" t="n">
         <v>22.2</v>
@@ -3132,10 +3132,10 @@
         <v>22.2</v>
       </c>
       <c r="L61" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="M61" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="N61" t="n">
         <v>22.4</v>
@@ -3199,7 +3199,7 @@
         <v>5.5</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="F63" t="n">
         <v>11.8</v>
@@ -3211,7 +3211,7 @@
         <v>18.4</v>
       </c>
       <c r="I63" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="J63" t="n">
         <v>22.1</v>
@@ -3246,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="G64" t="n">
         <v>15.3</v>
@@ -3264,7 +3264,7 @@
         <v>22.7</v>
       </c>
       <c r="L64" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="M64" t="n">
         <v>22.5</v>
@@ -3355,7 +3355,7 @@
         <v>22.8</v>
       </c>
       <c r="M66" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N66" t="n">
         <v>23.3</v>
@@ -3375,7 +3375,7 @@
         <v>5.5</v>
       </c>
       <c r="E67" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>12</v>
@@ -3387,7 +3387,7 @@
         <v>19</v>
       </c>
       <c r="I67" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="J67" t="n">
         <v>22.7</v>
@@ -3396,10 +3396,10 @@
         <v>23.2</v>
       </c>
       <c r="L67" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="M67" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N67" t="n">
         <v>23.5</v>
@@ -3419,7 +3419,7 @@
         <v>5.5</v>
       </c>
       <c r="E68" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F68" t="n">
         <v>12.1</v>
@@ -3431,7 +3431,7 @@
         <v>19.1</v>
       </c>
       <c r="I68" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="J68" t="n">
         <v>22.9</v>
@@ -3443,7 +3443,7 @@
         <v>23.1</v>
       </c>
       <c r="M68" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="N68" t="n">
         <v>23.6</v>
@@ -3463,7 +3463,7 @@
         <v>5.5</v>
       </c>
       <c r="E69" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F69" t="n">
         <v>12.1</v>
@@ -3475,10 +3475,10 @@
         <v>19.2</v>
       </c>
       <c r="I69" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="J69" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="K69" t="n">
         <v>23.6</v>
@@ -3487,7 +3487,7 @@
         <v>23.3</v>
       </c>
       <c r="M69" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N69" t="n">
         <v>23.8</v>
@@ -3501,13 +3501,13 @@
         <v>98</v>
       </c>
       <c r="C70" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D70" t="n">
         <v>5.5</v>
       </c>
       <c r="E70" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
         <v>12.2</v>
@@ -3519,7 +3519,7 @@
         <v>19.3</v>
       </c>
       <c r="I70" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="J70" t="n">
         <v>23.2</v>
@@ -3531,7 +3531,7 @@
         <v>23.5</v>
       </c>
       <c r="M70" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="N70" t="n">
         <v>23.9</v>
@@ -3551,7 +3551,7 @@
         <v>5.5</v>
       </c>
       <c r="E71" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F71" t="n">
         <v>12.2</v>
@@ -3575,7 +3575,7 @@
         <v>23.6</v>
       </c>
       <c r="M71" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="N71" t="n">
         <v>24</v>
@@ -3595,7 +3595,7 @@
         <v>5.5</v>
       </c>
       <c r="E72" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
         <v>12.2</v>
@@ -3619,7 +3619,7 @@
         <v>23.8</v>
       </c>
       <c r="M72" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="N72" t="n">
         <v>24.1</v>
@@ -3639,7 +3639,7 @@
         <v>5.5</v>
       </c>
       <c r="E73" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F73" t="n">
         <v>12.3</v>
@@ -3663,7 +3663,7 @@
         <v>23.9</v>
       </c>
       <c r="M73" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="N73" t="n">
         <v>24.2</v>
@@ -3683,7 +3683,7 @@
         <v>5.5</v>
       </c>
       <c r="E74" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
         <v>12.3</v>
@@ -3707,7 +3707,7 @@
         <v>24.1</v>
       </c>
       <c r="M74" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="N74" t="n">
         <v>24.3</v>
@@ -3727,7 +3727,7 @@
         <v>5.5</v>
       </c>
       <c r="E75" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="F75" t="n">
         <v>12.3</v>
@@ -3748,10 +3748,10 @@
         <v>24.5</v>
       </c>
       <c r="L75" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="M75" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="N75" t="n">
         <v>24.4</v>
@@ -3765,7 +3765,7 @@
         <v>104</v>
       </c>
       <c r="C76" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D76" t="n">
         <v>5.5</v>
@@ -3774,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="G76" t="n">
         <v>16.1</v>
@@ -3786,7 +3786,7 @@
         <v>22</v>
       </c>
       <c r="J76" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="K76" t="n">
         <v>24.6</v>
@@ -3795,7 +3795,7 @@
         <v>24.4</v>
       </c>
       <c r="M76" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="N76" t="n">
         <v>24.5</v>
@@ -3839,7 +3839,7 @@
         <v>24.5</v>
       </c>
       <c r="M77" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="N77" t="n">
         <v>24.5</v>
@@ -3859,7 +3859,7 @@
         <v>5.4</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="F78" t="n">
         <v>12.4</v>
@@ -3880,10 +3880,10 @@
         <v>24.8</v>
       </c>
       <c r="L78" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="M78" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="N78" t="n">
         <v>24.6</v>
@@ -3903,7 +3903,7 @@
         <v>5.4</v>
       </c>
       <c r="E79" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="F79" t="n">
         <v>12.4</v>
@@ -3927,7 +3927,7 @@
         <v>24.8</v>
       </c>
       <c r="M79" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="N79" t="n">
         <v>24.6</v>
@@ -3962,7 +3962,7 @@
         <v>22.1</v>
       </c>
       <c r="J80" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="K80" t="n">
         <v>25.1</v>
@@ -3971,7 +3971,7 @@
         <v>24.9</v>
       </c>
       <c r="M80" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="N80" t="n">
         <v>24.6</v>
@@ -3991,7 +3991,7 @@
         <v>5.4</v>
       </c>
       <c r="E81" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F81" t="n">
         <v>12.4</v>
@@ -4015,7 +4015,7 @@
         <v>25</v>
       </c>
       <c r="M81" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="N81" t="n">
         <v>24.7</v>
@@ -4050,16 +4050,16 @@
         <v>22.1</v>
       </c>
       <c r="J82" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="K82" t="n">
         <v>25.2</v>
       </c>
       <c r="L82" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="M82" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="N82" t="n">
         <v>24.7</v>
@@ -4079,7 +4079,7 @@
         <v>5.3</v>
       </c>
       <c r="E83" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F83" t="n">
         <v>12.4</v>
@@ -4100,10 +4100,10 @@
         <v>25.3</v>
       </c>
       <c r="L83" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="M83" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="N83" t="n">
         <v>24.7</v>
@@ -4123,7 +4123,7 @@
         <v>5.3</v>
       </c>
       <c r="E84" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F84" t="n">
         <v>12.4</v>
@@ -4144,13 +4144,13 @@
         <v>25.4</v>
       </c>
       <c r="L84" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="M84" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="N84" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="85">
@@ -4161,13 +4161,13 @@
         <v>113</v>
       </c>
       <c r="C85" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D85" t="n">
         <v>5.3</v>
       </c>
       <c r="E85" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="F85" t="n">
         <v>12.4</v>
@@ -4191,7 +4191,7 @@
         <v>25.4</v>
       </c>
       <c r="M85" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="N85" t="n">
         <v>24.6</v>
@@ -4205,7 +4205,7 @@
         <v>114</v>
       </c>
       <c r="C86" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D86" t="n">
         <v>5.2</v>
@@ -4214,7 +4214,7 @@
         <v>8.6</v>
       </c>
       <c r="F86" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="G86" t="n">
         <v>16.1</v>
@@ -4232,10 +4232,10 @@
         <v>25.5</v>
       </c>
       <c r="L86" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="M86" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="N86" t="n">
         <v>24.6</v>
@@ -4249,13 +4249,13 @@
         <v>115</v>
       </c>
       <c r="C87" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D87" t="n">
         <v>5.2</v>
       </c>
       <c r="E87" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="F87" t="n">
         <v>12.3</v>
@@ -4264,22 +4264,22 @@
         <v>16.1</v>
       </c>
       <c r="H87" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="I87" t="n">
         <v>21.9</v>
       </c>
       <c r="J87" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="K87" t="n">
         <v>25.5</v>
       </c>
       <c r="L87" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="M87" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="N87" t="n">
         <v>24.5</v>
@@ -4293,7 +4293,7 @@
         <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="D88" t="n">
         <v>5.2</v>
@@ -4305,7 +4305,7 @@
         <v>12.3</v>
       </c>
       <c r="G88" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="H88" t="n">
         <v>19.4</v>
@@ -4320,10 +4320,10 @@
         <v>25.5</v>
       </c>
       <c r="L88" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="M88" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="N88" t="n">
         <v>24.5</v>
@@ -4343,7 +4343,7 @@
         <v>5.1</v>
       </c>
       <c r="E89" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="F89" t="n">
         <v>12.3</v>
@@ -4358,16 +4358,16 @@
         <v>21.7</v>
       </c>
       <c r="J89" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="K89" t="n">
         <v>25.5</v>
       </c>
       <c r="L89" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="M89" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="N89" t="n">
         <v>24.4</v>
@@ -4387,7 +4387,7 @@
         <v>5.1</v>
       </c>
       <c r="E90" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F90" t="n">
         <v>12.2</v>
@@ -4408,10 +4408,10 @@
         <v>25.5</v>
       </c>
       <c r="L90" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="M90" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="N90" t="n">
         <v>24.3</v>
@@ -4437,10 +4437,10 @@
         <v>12.2</v>
       </c>
       <c r="G91" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="H91" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="I91" t="n">
         <v>21.5</v>
@@ -4452,10 +4452,10 @@
         <v>25.5</v>
       </c>
       <c r="L91" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="M91" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="N91" t="n">
         <v>24.2</v>
@@ -4481,7 +4481,7 @@
         <v>12.1</v>
       </c>
       <c r="G92" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="H92" t="n">
         <v>18.9</v>
@@ -4496,10 +4496,10 @@
         <v>25.4</v>
       </c>
       <c r="L92" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="M92" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="N92" t="n">
         <v>24.1</v>
@@ -4519,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F93" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="G93" t="n">
         <v>15.7</v>
@@ -4534,16 +4534,16 @@
         <v>21.2</v>
       </c>
       <c r="J93" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="K93" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="L93" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="M93" t="n">
-        <v>25.3</v>
+        <v>25.8</v>
       </c>
       <c r="N93" t="n">
         <v>24</v>
@@ -4563,13 +4563,13 @@
         <v>4.9</v>
       </c>
       <c r="E94" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
         <v>12</v>
       </c>
       <c r="G94" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="H94" t="n">
         <v>18.6</v>
@@ -4584,10 +4584,10 @@
         <v>25.3</v>
       </c>
       <c r="L94" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="M94" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="N94" t="n">
         <v>23.9</v>
@@ -4607,13 +4607,13 @@
         <v>4.9</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="F95" t="n">
         <v>11.9</v>
       </c>
       <c r="G95" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="H95" t="n">
         <v>18.5</v>
@@ -4622,16 +4622,16 @@
         <v>20.9</v>
       </c>
       <c r="J95" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="K95" t="n">
         <v>25.2</v>
       </c>
       <c r="L95" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="M95" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="N95" t="n">
         <v>23.8</v>
@@ -4645,13 +4645,13 @@
         <v>124</v>
       </c>
       <c r="C96" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D96" t="n">
         <v>4.8</v>
       </c>
       <c r="E96" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="F96" t="n">
         <v>11.8</v>
@@ -4663,7 +4663,7 @@
         <v>18.3</v>
       </c>
       <c r="I96" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="J96" t="n">
         <v>23.4</v>
@@ -4672,10 +4672,10 @@
         <v>25.1</v>
       </c>
       <c r="L96" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="M96" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="N96" t="n">
         <v>23.6</v>
@@ -4716,10 +4716,10 @@
         <v>24.9</v>
       </c>
       <c r="L97" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="M97" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="N97" t="n">
         <v>23.5</v>
@@ -4745,7 +4745,7 @@
         <v>11.6</v>
       </c>
       <c r="G98" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H98" t="n">
         <v>17.9</v>
@@ -4760,10 +4760,10 @@
         <v>24.8</v>
       </c>
       <c r="L98" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="M98" t="n">
         <v>25.3</v>
-      </c>
-      <c r="M98" t="n">
-        <v>24.9</v>
       </c>
       <c r="N98" t="n">
         <v>23.3</v>
@@ -4798,16 +4798,16 @@
         <v>20.2</v>
       </c>
       <c r="J99" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="K99" t="n">
         <v>24.6</v>
       </c>
       <c r="L99" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="M99" t="n">
         <v>25.1</v>
-      </c>
-      <c r="M99" t="n">
-        <v>24.7</v>
       </c>
       <c r="N99" t="n">
         <v>23.2</v>
@@ -4833,25 +4833,25 @@
         <v>11.4</v>
       </c>
       <c r="G100" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="H100" t="n">
         <v>17.5</v>
       </c>
       <c r="I100" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="J100" t="n">
         <v>22.5</v>
       </c>
       <c r="K100" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="L100" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="M100" t="n">
         <v>25</v>
-      </c>
-      <c r="M100" t="n">
-        <v>24.6</v>
       </c>
       <c r="N100" t="n">
         <v>23</v>
@@ -4889,13 +4889,13 @@
         <v>22.2</v>
       </c>
       <c r="K101" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="L101" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="M101" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="N101" t="n">
         <v>22.8</v>
@@ -4930,16 +4930,16 @@
         <v>19.5</v>
       </c>
       <c r="J102" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="K102" t="n">
         <v>24</v>
       </c>
       <c r="L102" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="M102" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="N102" t="n">
         <v>22.6</v>
@@ -4959,7 +4959,7 @@
         <v>4.5</v>
       </c>
       <c r="E103" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F103" t="n">
         <v>11.1</v>
@@ -4971,19 +4971,19 @@
         <v>16.8</v>
       </c>
       <c r="I103" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="J103" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="K103" t="n">
         <v>23.8</v>
       </c>
       <c r="L103" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="M103" t="n">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="N103" t="n">
         <v>22.4</v>
@@ -5003,7 +5003,7 @@
         <v>4.4</v>
       </c>
       <c r="E104" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F104" t="n">
         <v>10.9</v>
@@ -5024,10 +5024,10 @@
         <v>23.5</v>
       </c>
       <c r="L104" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="M104" t="n">
-        <v>23.8</v>
+        <v>24.1</v>
       </c>
       <c r="N104" t="n">
         <v>22.2</v>
@@ -5068,10 +5068,10 @@
         <v>23.3</v>
       </c>
       <c r="L105" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="M105" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="N105" t="n">
         <v>22</v>
@@ -5106,16 +5106,16 @@
         <v>18.4</v>
       </c>
       <c r="J106" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="K106" t="n">
         <v>23</v>
       </c>
       <c r="L106" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="M106" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="N106" t="n">
         <v>21.8</v>
@@ -5141,28 +5141,28 @@
         <v>10.5</v>
       </c>
       <c r="G107" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="H107" t="n">
         <v>15.7</v>
       </c>
       <c r="I107" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="J107" t="n">
         <v>20.3</v>
       </c>
       <c r="K107" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="L107" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="M107" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="N107" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="108">
@@ -5191,7 +5191,7 @@
         <v>15.4</v>
       </c>
       <c r="I108" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="J108" t="n">
         <v>19.9</v>
@@ -5200,10 +5200,10 @@
         <v>22.3</v>
       </c>
       <c r="L108" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="M108" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="N108" t="n">
         <v>21.3</v>
@@ -5226,13 +5226,13 @@
         <v>6.5</v>
       </c>
       <c r="F109" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="G109" t="n">
         <v>12.9</v>
       </c>
       <c r="H109" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="I109" t="n">
         <v>17.5</v>
@@ -5244,13 +5244,13 @@
         <v>22</v>
       </c>
       <c r="L109" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="M109" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N109" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="110">
@@ -5288,10 +5288,10 @@
         <v>21.6</v>
       </c>
       <c r="L110" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="M110" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N110" t="n">
         <v>20.8</v>
@@ -5326,19 +5326,19 @@
         <v>16.9</v>
       </c>
       <c r="J111" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="K111" t="n">
         <v>21.2</v>
       </c>
       <c r="L111" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="M111" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N111" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="112">
@@ -5367,7 +5367,7 @@
         <v>14.2</v>
       </c>
       <c r="I112" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="J112" t="n">
         <v>18.2</v>
@@ -5376,10 +5376,10 @@
         <v>20.8</v>
       </c>
       <c r="L112" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="M112" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N112" t="n">
         <v>20.3</v>
@@ -5414,19 +5414,19 @@
         <v>16.2</v>
       </c>
       <c r="J113" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="K113" t="n">
         <v>20.4</v>
       </c>
       <c r="L113" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="M113" t="n">
         <v>21.2</v>
       </c>
       <c r="N113" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="114">
@@ -5455,7 +5455,7 @@
         <v>13.6</v>
       </c>
       <c r="I114" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="J114" t="n">
         <v>17.3</v>
@@ -5464,7 +5464,7 @@
         <v>20</v>
       </c>
       <c r="L114" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="M114" t="n">
         <v>20.8</v>
@@ -5487,7 +5487,7 @@
         <v>3.9</v>
       </c>
       <c r="E115" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
@@ -5508,7 +5508,7 @@
         <v>19.5</v>
       </c>
       <c r="L115" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="M115" t="n">
         <v>20.4</v>
@@ -5552,10 +5552,10 @@
         <v>19.1</v>
       </c>
       <c r="L116" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="M116" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N116" t="n">
         <v>19.2</v>
@@ -5575,7 +5575,7 @@
         <v>3.9</v>
       </c>
       <c r="E117" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="F117" t="n">
         <v>8.6</v>
@@ -5587,7 +5587,7 @@
         <v>12.6</v>
       </c>
       <c r="I117" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="J117" t="n">
         <v>15.9</v>
@@ -5596,13 +5596,13 @@
         <v>18.6</v>
       </c>
       <c r="L117" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="M117" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N117" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118">
@@ -5631,7 +5631,7 @@
         <v>12.2</v>
       </c>
       <c r="I118" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="J118" t="n">
         <v>15.4</v>
@@ -5643,10 +5643,10 @@
         <v>19.8</v>
       </c>
       <c r="M118" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="N118" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="119">
@@ -5663,7 +5663,7 @@
         <v>3.8</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F119" t="n">
         <v>8.199999999999999</v>
@@ -5684,10 +5684,10 @@
         <v>17.6</v>
       </c>
       <c r="L119" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="M119" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N119" t="n">
         <v>18.4</v>
@@ -5701,7 +5701,7 @@
         <v>148</v>
       </c>
       <c r="C120" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D120" t="n">
         <v>3.8</v>
@@ -5716,7 +5716,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H120" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="I120" t="n">
         <v>13.6</v>
@@ -5728,10 +5728,10 @@
         <v>17.1</v>
       </c>
       <c r="L120" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="M120" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="N120" t="n">
         <v>18.1</v>
@@ -5775,7 +5775,7 @@
         <v>18.4</v>
       </c>
       <c r="M121" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="N121" t="n">
         <v>17.8</v>
@@ -5819,7 +5819,7 @@
         <v>17.9</v>
       </c>
       <c r="M122" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="N122" t="n">
         <v>17.5</v>
@@ -5851,7 +5851,7 @@
         <v>10.5</v>
       </c>
       <c r="I123" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="J123" t="n">
         <v>12.9</v>
@@ -5863,7 +5863,7 @@
         <v>17.4</v>
       </c>
       <c r="M123" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="N123" t="n">
         <v>17.2</v>
@@ -5877,7 +5877,7 @@
         <v>152</v>
       </c>
       <c r="C124" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D124" t="n">
         <v>3.7</v>
@@ -5895,10 +5895,10 @@
         <v>10.2</v>
       </c>
       <c r="I124" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="J124" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="K124" t="n">
         <v>15.1</v>
@@ -5907,7 +5907,7 @@
         <v>16.9</v>
       </c>
       <c r="M124" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="N124" t="n">
         <v>16.9</v>
@@ -5927,7 +5927,7 @@
         <v>3.6</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="F125" t="n">
         <v>6.9</v>
@@ -5939,7 +5939,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I125" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="J125" t="n">
         <v>12</v>
@@ -5951,7 +5951,7 @@
         <v>16.4</v>
       </c>
       <c r="M125" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="N125" t="n">
         <v>16.6</v>
@@ -5983,7 +5983,7 @@
         <v>9.5</v>
       </c>
       <c r="I126" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="J126" t="n">
         <v>11.5</v>
@@ -5995,7 +5995,7 @@
         <v>15.9</v>
       </c>
       <c r="M126" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="N126" t="n">
         <v>16.3</v>
@@ -6009,7 +6009,7 @@
         <v>155</v>
       </c>
       <c r="C127" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D127" t="n">
         <v>3.6</v>
@@ -6027,7 +6027,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I127" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="J127" t="n">
         <v>11.1</v>
@@ -6039,7 +6039,7 @@
         <v>15.4</v>
       </c>
       <c r="M127" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="N127" t="n">
         <v>16</v>
@@ -6083,7 +6083,7 @@
         <v>14.9</v>
       </c>
       <c r="M128" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="N128" t="n">
         <v>15.7</v>
@@ -6115,7 +6115,7 @@
         <v>8.5</v>
       </c>
       <c r="I129" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="J129" t="n">
         <v>10.3</v>
@@ -6124,10 +6124,10 @@
         <v>12.6</v>
       </c>
       <c r="L129" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="M129" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="N129" t="n">
         <v>15.4</v>
@@ -6153,25 +6153,25 @@
         <v>5.8</v>
       </c>
       <c r="G130" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H130" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I130" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="K130" t="n">
         <v>12.1</v>
       </c>
       <c r="L130" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="M130" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="N130" t="n">
         <v>15.1</v>
@@ -6191,7 +6191,7 @@
         <v>3.6</v>
       </c>
       <c r="E131" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="F131" t="n">
         <v>5.6</v>
@@ -6212,10 +6212,10 @@
         <v>11.6</v>
       </c>
       <c r="L131" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="M131" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="N131" t="n">
         <v>14.8</v>
@@ -6238,7 +6238,7 @@
         <v>2.6</v>
       </c>
       <c r="F132" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G132" t="n">
         <v>6.3</v>
@@ -6247,7 +6247,7 @@
         <v>7.6</v>
       </c>
       <c r="I132" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="J132" t="n">
         <v>9.300000000000001</v>
@@ -6256,13 +6256,13 @@
         <v>11.2</v>
       </c>
       <c r="L132" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M132" t="n">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="N132" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="133">
@@ -6282,7 +6282,7 @@
         <v>2.4</v>
       </c>
       <c r="F133" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G133" t="n">
         <v>6.1</v>
@@ -6291,7 +6291,7 @@
         <v>7.4</v>
       </c>
       <c r="I133" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J133" t="n">
         <v>9.1</v>
@@ -6300,13 +6300,13 @@
         <v>10.8</v>
       </c>
       <c r="L133" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="M133" t="n">
-        <v>12.7</v>
+        <v>12.3</v>
       </c>
       <c r="N133" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="134">
@@ -6323,7 +6323,7 @@
         <v>3.6</v>
       </c>
       <c r="E134" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="F134" t="n">
         <v>5</v>
@@ -6335,7 +6335,7 @@
         <v>7.1</v>
       </c>
       <c r="I134" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J134" t="n">
         <v>8.9</v>
@@ -6347,10 +6347,10 @@
         <v>11.9</v>
       </c>
       <c r="M134" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="N134" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="135">
@@ -6367,7 +6367,7 @@
         <v>3.6</v>
       </c>
       <c r="E135" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F135" t="n">
         <v>4.8</v>
@@ -6388,10 +6388,10 @@
         <v>10</v>
       </c>
       <c r="L135" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="M135" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="N135" t="n">
         <v>13.5</v>
@@ -6411,7 +6411,7 @@
         <v>3.6</v>
       </c>
       <c r="E136" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F136" t="n">
         <v>4.6</v>
@@ -6423,7 +6423,7 @@
         <v>6.6</v>
       </c>
       <c r="I136" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J136" t="n">
         <v>8.6</v>
@@ -6435,7 +6435,7 @@
         <v>11</v>
       </c>
       <c r="M136" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="N136" t="n">
         <v>13.2</v>
@@ -6455,7 +6455,7 @@
         <v>3.6</v>
       </c>
       <c r="E137" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F137" t="n">
         <v>4.4</v>
@@ -6467,7 +6467,7 @@
         <v>6.4</v>
       </c>
       <c r="I137" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J137" t="n">
         <v>8.5</v>
@@ -6479,7 +6479,7 @@
         <v>10.6</v>
       </c>
       <c r="M137" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="N137" t="n">
         <v>12.9</v>
@@ -6499,7 +6499,7 @@
         <v>3.6</v>
       </c>
       <c r="E138" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>4.3</v>
@@ -6520,10 +6520,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L138" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M138" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N138" t="n">
         <v>12.6</v>
@@ -6543,7 +6543,7 @@
         <v>3.7</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F139" t="n">
         <v>4.1</v>
@@ -6555,7 +6555,7 @@
         <v>6</v>
       </c>
       <c r="I139" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J139" t="n">
         <v>8.6</v>
@@ -6567,10 +6567,10 @@
         <v>9.9</v>
       </c>
       <c r="M139" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="N139" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="140">
@@ -6587,19 +6587,19 @@
         <v>3.7</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F140" t="n">
         <v>4</v>
       </c>
       <c r="G140" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>5.8</v>
       </c>
       <c r="I140" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J140" t="n">
         <v>8.800000000000001</v>
@@ -6611,7 +6611,7 @@
         <v>9.6</v>
       </c>
       <c r="M140" t="n">
-        <v>10.8</v>
+        <v>11.1</v>
       </c>
       <c r="N140" t="n">
         <v>11.9</v>
@@ -6631,7 +6631,7 @@
         <v>3.7</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>3.9</v>
@@ -6655,7 +6655,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="M141" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="N141" t="n">
         <v>11.6</v>
@@ -6675,7 +6675,7 @@
         <v>3.7</v>
       </c>
       <c r="E142" t="n">
-        <v>-0</v>
+        <v>-0.3</v>
       </c>
       <c r="F142" t="n">
         <v>3.8</v>
@@ -6687,10 +6687,10 @@
         <v>5.5</v>
       </c>
       <c r="I142" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J142" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K142" t="n">
         <v>8.800000000000001</v>
@@ -6699,7 +6699,7 @@
         <v>9.1</v>
       </c>
       <c r="M142" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="N142" t="n">
         <v>11.3</v>
@@ -6719,7 +6719,7 @@
         <v>3.8</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="F143" t="n">
         <v>3.7</v>
@@ -6731,7 +6731,7 @@
         <v>5.4</v>
       </c>
       <c r="I143" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J143" t="n">
         <v>9.800000000000001</v>
@@ -6743,10 +6743,10 @@
         <v>8.9</v>
       </c>
       <c r="M143" t="n">
-        <v>10.6</v>
+        <v>11.4</v>
       </c>
       <c r="N143" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -6763,7 +6763,7 @@
         <v>3.8</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="F144" t="n">
         <v>3.7</v>
@@ -6775,7 +6775,7 @@
         <v>5.4</v>
       </c>
       <c r="I144" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J144" t="n">
         <v>10.3</v>
@@ -6787,7 +6787,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M144" t="n">
-        <v>10.7</v>
+        <v>11.7</v>
       </c>
       <c r="N144" t="n">
         <v>10.6</v>
@@ -6807,13 +6807,13 @@
         <v>3.8</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="F145" t="n">
         <v>3.6</v>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H145" t="n">
         <v>5.3</v>
@@ -6831,7 +6831,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M145" t="n">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="N145" t="n">
         <v>10.3</v>
@@ -6851,13 +6851,13 @@
         <v>3.8</v>
       </c>
       <c r="E146" t="n">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="F146" t="n">
         <v>3.6</v>
       </c>
       <c r="G146" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H146" t="n">
         <v>5.3</v>
@@ -6866,16 +6866,16 @@
         <v>6.3</v>
       </c>
       <c r="J146" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="K146" t="n">
         <v>9.5</v>
       </c>
       <c r="L146" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M146" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="N146" t="n">
         <v>9.9</v>
@@ -6889,16 +6889,16 @@
         <v>175</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D147" t="n">
         <v>3.9</v>
       </c>
       <c r="E147" t="n">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
       <c r="F147" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="G147" t="n">
         <v>5.2</v>
@@ -6907,10 +6907,10 @@
         <v>5.3</v>
       </c>
       <c r="I147" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J147" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="K147" t="n">
         <v>9.9</v>
@@ -6919,7 +6919,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M147" t="n">
-        <v>11.3</v>
+        <v>13.1</v>
       </c>
       <c r="N147" t="n">
         <v>9.6</v>
@@ -6933,13 +6933,13 @@
         <v>176</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="D148" t="n">
         <v>3.9</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.3</v>
+        <v>-2.9</v>
       </c>
       <c r="F148" t="n">
         <v>3.7</v>
@@ -6954,16 +6954,16 @@
         <v>6.4</v>
       </c>
       <c r="J148" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="K148" t="n">
         <v>10.4</v>
       </c>
       <c r="L148" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M148" t="n">
-        <v>11.7</v>
+        <v>13.8</v>
       </c>
       <c r="N148" t="n">
         <v>9.199999999999999</v>
@@ -6983,7 +6983,7 @@
         <v>3.9</v>
       </c>
       <c r="E149" t="n">
-        <v>-2.7</v>
+        <v>-3.4</v>
       </c>
       <c r="F149" t="n">
         <v>3.8</v>
@@ -6995,19 +6995,19 @@
         <v>5.4</v>
       </c>
       <c r="I149" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J149" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="K149" t="n">
         <v>11</v>
       </c>
       <c r="L149" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M149" t="n">
-        <v>12.1</v>
+        <v>14.6</v>
       </c>
       <c r="N149" t="n">
         <v>8.9</v>
@@ -7021,13 +7021,13 @@
         <v>178</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="D150" t="n">
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.2</v>
+        <v>-3.9</v>
       </c>
       <c r="F150" t="n">
         <v>3.9</v>
@@ -7036,22 +7036,22 @@
         <v>6</v>
       </c>
       <c r="H150" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I150" t="n">
         <v>6.7</v>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="K150" t="n">
         <v>11.7</v>
       </c>
       <c r="L150" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="M150" t="n">
-        <v>12.7</v>
+        <v>15.6</v>
       </c>
       <c r="N150" t="n">
         <v>8.5</v>
@@ -7071,31 +7071,31 @@
         <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>-3.7</v>
+        <v>-4.5</v>
       </c>
       <c r="F151" t="n">
         <v>4</v>
       </c>
       <c r="G151" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H151" t="n">
         <v>5.7</v>
       </c>
       <c r="I151" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J151" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="K151" t="n">
         <v>12.6</v>
       </c>
       <c r="L151" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M151" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="N151" t="n">
         <v>8.1</v>
@@ -7109,37 +7109,37 @@
         <v>180</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="D152" t="n">
         <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>-4.2</v>
+        <v>-5.1</v>
       </c>
       <c r="F152" t="n">
         <v>4.2</v>
       </c>
       <c r="G152" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="H152" t="n">
         <v>5.9</v>
       </c>
       <c r="I152" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J152" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="K152" t="n">
         <v>13.6</v>
       </c>
       <c r="L152" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="M152" t="n">
-        <v>14.1</v>
+        <v>17.9</v>
       </c>
       <c r="N152" t="n">
         <v>7.7</v>

--- a/polars.xlsx
+++ b/polars.xlsx
@@ -524,7 +524,7 @@
         <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="I2" t="n">
         <v>7.7</v>
@@ -571,7 +571,7 @@
         <v>8.1</v>
       </c>
       <c r="I3" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>8.800000000000001</v>
@@ -659,7 +659,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="J5" t="n">
         <v>9.5</v>
@@ -706,7 +706,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>10.2</v>
@@ -747,7 +747,7 @@
         <v>8.6</v>
       </c>
       <c r="I7" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
         <v>10.2</v>
@@ -835,7 +835,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
         <v>10.8</v>
@@ -923,7 +923,7 @@
         <v>9.1</v>
       </c>
       <c r="I11" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
         <v>11.4</v>
@@ -1055,10 +1055,10 @@
         <v>9.5</v>
       </c>
       <c r="I14" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="J14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="K14" t="n">
         <v>12.9</v>
@@ -1134,7 +1134,7 @@
         <v>6.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
         <v>9.1</v>
@@ -1310,7 +1310,7 @@
         <v>6.5</v>
       </c>
       <c r="F20" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="G20" t="n">
         <v>9.699999999999999</v>
@@ -1580,10 +1580,10 @@
         <v>10.5</v>
       </c>
       <c r="H26" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="I26" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="J26" t="n">
         <v>15.1</v>
@@ -1715,7 +1715,7 @@
         <v>11.9</v>
       </c>
       <c r="I29" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="J29" t="n">
         <v>15.7</v>
@@ -1759,7 +1759,7 @@
         <v>12.1</v>
       </c>
       <c r="I30" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="J30" t="n">
         <v>15.9</v>
@@ -1803,7 +1803,7 @@
         <v>12.3</v>
       </c>
       <c r="I31" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="J31" t="n">
         <v>16.1</v>
@@ -1891,7 +1891,7 @@
         <v>12.7</v>
       </c>
       <c r="I33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
         <v>16.5</v>
@@ -1935,7 +1935,7 @@
         <v>12.9</v>
       </c>
       <c r="I34" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="J34" t="n">
         <v>16.7</v>
@@ -1979,7 +1979,7 @@
         <v>13.1</v>
       </c>
       <c r="I35" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="J35" t="n">
         <v>16.9</v>
@@ -2023,7 +2023,7 @@
         <v>13.3</v>
       </c>
       <c r="I36" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="J36" t="n">
         <v>17.1</v>
@@ -2067,10 +2067,10 @@
         <v>13.5</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="J37" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="K37" t="n">
         <v>18</v>
@@ -2105,19 +2105,19 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="H38" t="n">
         <v>13.7</v>
       </c>
       <c r="I38" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="K38" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="L38" t="n">
         <v>18</v>
@@ -2155,10 +2155,10 @@
         <v>13.9</v>
       </c>
       <c r="I39" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="J39" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="K39" t="n">
         <v>18.3</v>
@@ -2199,10 +2199,10 @@
         <v>14.1</v>
       </c>
       <c r="I40" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="J40" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="K40" t="n">
         <v>18.5</v>
@@ -2243,10 +2243,10 @@
         <v>14.3</v>
       </c>
       <c r="I41" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="J41" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="K41" t="n">
         <v>18.7</v>
@@ -2284,10 +2284,10 @@
         <v>12.7</v>
       </c>
       <c r="H42" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="I42" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="J42" t="n">
         <v>18.2</v>
@@ -2328,10 +2328,10 @@
         <v>12.8</v>
       </c>
       <c r="H43" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="I43" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="J43" t="n">
         <v>18.4</v>
@@ -2372,13 +2372,13 @@
         <v>12.9</v>
       </c>
       <c r="H44" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="I44" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="J44" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="K44" t="n">
         <v>19.2</v>
@@ -2416,13 +2416,13 @@
         <v>13.1</v>
       </c>
       <c r="H45" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="I45" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="J45" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="K45" t="n">
         <v>19.3</v>
@@ -2460,13 +2460,13 @@
         <v>13.2</v>
       </c>
       <c r="H46" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="I46" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="J46" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="K46" t="n">
         <v>19.5</v>
@@ -2504,13 +2504,13 @@
         <v>13.3</v>
       </c>
       <c r="H47" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="I47" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="J47" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="K47" t="n">
         <v>19.7</v>
@@ -2548,13 +2548,13 @@
         <v>13.4</v>
       </c>
       <c r="H48" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="I48" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="J48" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="K48" t="n">
         <v>19.9</v>
@@ -2592,13 +2592,13 @@
         <v>13.6</v>
       </c>
       <c r="H49" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="I49" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="J49" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="K49" t="n">
         <v>20</v>
@@ -2636,13 +2636,13 @@
         <v>13.7</v>
       </c>
       <c r="H50" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="I50" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="J50" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="K50" t="n">
         <v>20.2</v>
@@ -2680,10 +2680,10 @@
         <v>13.8</v>
       </c>
       <c r="H51" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="I51" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="J51" t="n">
         <v>19.9</v>
@@ -2724,13 +2724,13 @@
         <v>13.9</v>
       </c>
       <c r="H52" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="I52" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="J52" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="K52" t="n">
         <v>20.6</v>
@@ -2768,13 +2768,13 @@
         <v>14.1</v>
       </c>
       <c r="H53" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="I53" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="K53" t="n">
         <v>20.7</v>
@@ -2812,13 +2812,13 @@
         <v>14.2</v>
       </c>
       <c r="H54" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="I54" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="J54" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="K54" t="n">
         <v>20.9</v>
@@ -2856,13 +2856,13 @@
         <v>14.3</v>
       </c>
       <c r="H55" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="I55" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="J55" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="K55" t="n">
         <v>21.1</v>
@@ -2900,13 +2900,13 @@
         <v>14.4</v>
       </c>
       <c r="H56" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="I56" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="J56" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="K56" t="n">
         <v>21.3</v>
@@ -2944,13 +2944,13 @@
         <v>14.5</v>
       </c>
       <c r="H57" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="I57" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="J57" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="K57" t="n">
         <v>21.4</v>
@@ -2988,13 +2988,13 @@
         <v>14.6</v>
       </c>
       <c r="H58" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="I58" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="J58" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="K58" t="n">
         <v>21.6</v>
@@ -3029,16 +3029,16 @@
         <v>11.5</v>
       </c>
       <c r="G59" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="H59" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="I59" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="J59" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="K59" t="n">
         <v>21.8</v>
@@ -3076,13 +3076,13 @@
         <v>14.9</v>
       </c>
       <c r="H60" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="I60" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="J60" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="K60" t="n">
         <v>22</v>
@@ -3120,13 +3120,13 @@
         <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="I61" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="J61" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="K61" t="n">
         <v>22.2</v>
@@ -3164,13 +3164,13 @@
         <v>15.1</v>
       </c>
       <c r="H62" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="I62" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="J62" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="K62" t="n">
         <v>22.3</v>
@@ -3208,10 +3208,10 @@
         <v>15.2</v>
       </c>
       <c r="H63" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="I63" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="J63" t="n">
         <v>22.1</v>
@@ -3246,19 +3246,19 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="G64" t="n">
         <v>15.3</v>
       </c>
       <c r="H64" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="I64" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="J64" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="K64" t="n">
         <v>22.7</v>
@@ -3296,13 +3296,13 @@
         <v>15.4</v>
       </c>
       <c r="H65" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="I65" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="J65" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K65" t="n">
         <v>22.9</v>
@@ -3337,19 +3337,19 @@
         <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="H66" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="I66" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="K66" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="L66" t="n">
         <v>22.8</v>
@@ -3387,10 +3387,10 @@
         <v>19</v>
       </c>
       <c r="I67" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="J67" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="K67" t="n">
         <v>23.2</v>
@@ -3431,10 +3431,10 @@
         <v>19.1</v>
       </c>
       <c r="I68" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="J68" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="K68" t="n">
         <v>23.4</v>
@@ -3475,10 +3475,10 @@
         <v>19.2</v>
       </c>
       <c r="I69" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="J69" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="K69" t="n">
         <v>23.6</v>
@@ -3519,10 +3519,10 @@
         <v>19.3</v>
       </c>
       <c r="I70" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="J70" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="K70" t="n">
         <v>23.7</v>
@@ -3563,10 +3563,10 @@
         <v>19.4</v>
       </c>
       <c r="I71" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="J71" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="K71" t="n">
         <v>23.9</v>
@@ -3604,10 +3604,10 @@
         <v>15.9</v>
       </c>
       <c r="H72" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="I72" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="J72" t="n">
         <v>23.5</v>
@@ -3648,13 +3648,13 @@
         <v>16</v>
       </c>
       <c r="H73" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="I73" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="J73" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="K73" t="n">
         <v>24.2</v>
@@ -3695,10 +3695,10 @@
         <v>19.6</v>
       </c>
       <c r="I74" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="J74" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="K74" t="n">
         <v>24.3</v>
@@ -3736,13 +3736,13 @@
         <v>16.1</v>
       </c>
       <c r="H75" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="I75" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="J75" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="K75" t="n">
         <v>24.5</v>
@@ -3774,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G76" t="n">
         <v>16.1</v>
@@ -3783,10 +3783,10 @@
         <v>19.7</v>
       </c>
       <c r="I76" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="J76" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="K76" t="n">
         <v>24.6</v>
@@ -3827,10 +3827,10 @@
         <v>19.7</v>
       </c>
       <c r="I77" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="J77" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="K77" t="n">
         <v>24.7</v>
@@ -3868,16 +3868,16 @@
         <v>16.2</v>
       </c>
       <c r="H78" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="I78" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="J78" t="n">
         <v>24.1</v>
       </c>
       <c r="K78" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="L78" t="n">
         <v>24.7</v>
@@ -3912,10 +3912,10 @@
         <v>16.2</v>
       </c>
       <c r="H79" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="I79" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="J79" t="n">
         <v>24.2</v>
@@ -3956,13 +3956,13 @@
         <v>16.2</v>
       </c>
       <c r="H80" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="I80" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="J80" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="K80" t="n">
         <v>25.1</v>
@@ -4000,10 +4000,10 @@
         <v>16.2</v>
       </c>
       <c r="H81" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="I81" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="J81" t="n">
         <v>24.3</v>
@@ -4047,10 +4047,10 @@
         <v>19.7</v>
       </c>
       <c r="I82" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="J82" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="K82" t="n">
         <v>25.2</v>
@@ -4091,7 +4091,7 @@
         <v>19.7</v>
       </c>
       <c r="I83" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="J83" t="n">
         <v>24.4</v>
@@ -4132,10 +4132,10 @@
         <v>16.2</v>
       </c>
       <c r="H84" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="I84" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="J84" t="n">
         <v>24.4</v>
@@ -4179,7 +4179,7 @@
         <v>19.6</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="J85" t="n">
         <v>24.4</v>
@@ -4214,7 +4214,7 @@
         <v>8.6</v>
       </c>
       <c r="F86" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G86" t="n">
         <v>16.1</v>
@@ -4223,7 +4223,7 @@
         <v>19.5</v>
       </c>
       <c r="I86" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="J86" t="n">
         <v>24.4</v>
@@ -4264,10 +4264,10 @@
         <v>16.1</v>
       </c>
       <c r="H87" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="I87" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="J87" t="n">
         <v>24.3</v>
@@ -4311,7 +4311,7 @@
         <v>19.4</v>
       </c>
       <c r="I88" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="J88" t="n">
         <v>24.3</v>
@@ -4355,7 +4355,7 @@
         <v>19.3</v>
       </c>
       <c r="I89" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="J89" t="n">
         <v>24.2</v>
@@ -4399,7 +4399,7 @@
         <v>19.2</v>
       </c>
       <c r="I90" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="J90" t="n">
         <v>24.2</v>
@@ -4443,7 +4443,7 @@
         <v>19</v>
       </c>
       <c r="I91" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="J91" t="n">
         <v>24.1</v>
@@ -4487,10 +4487,10 @@
         <v>18.9</v>
       </c>
       <c r="I92" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="J92" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="K92" t="n">
         <v>25.4</v>
@@ -4569,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="G94" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="H94" t="n">
         <v>18.6</v>
@@ -4616,7 +4616,7 @@
         <v>15.4</v>
       </c>
       <c r="H95" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="I95" t="n">
         <v>20.9</v>
@@ -4666,7 +4666,7 @@
         <v>20.7</v>
       </c>
       <c r="J96" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="K96" t="n">
         <v>25.1</v>
@@ -4710,7 +4710,7 @@
         <v>20.6</v>
       </c>
       <c r="J97" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="K97" t="n">
         <v>24.9</v>
@@ -4754,7 +4754,7 @@
         <v>20.4</v>
       </c>
       <c r="J98" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="K98" t="n">
         <v>24.8</v>
@@ -4839,10 +4839,10 @@
         <v>17.5</v>
       </c>
       <c r="I100" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="J100" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="K100" t="n">
         <v>24.5</v>
@@ -4880,7 +4880,7 @@
         <v>14.6</v>
       </c>
       <c r="H101" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="I101" t="n">
         <v>19.7</v>
@@ -4971,7 +4971,7 @@
         <v>16.8</v>
       </c>
       <c r="I103" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="J103" t="n">
         <v>21.6</v>
@@ -5056,13 +5056,13 @@
         <v>13.8</v>
       </c>
       <c r="H105" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="I105" t="n">
         <v>18.7</v>
       </c>
       <c r="J105" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="K105" t="n">
         <v>23.3</v>
@@ -5103,7 +5103,7 @@
         <v>16</v>
       </c>
       <c r="I106" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="J106" t="n">
         <v>20.6</v>
@@ -5147,10 +5147,10 @@
         <v>15.7</v>
       </c>
       <c r="I107" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="J107" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="K107" t="n">
         <v>22.7</v>
@@ -5191,10 +5191,10 @@
         <v>15.4</v>
       </c>
       <c r="I108" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="J108" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="K108" t="n">
         <v>22.3</v>
@@ -5235,10 +5235,10 @@
         <v>15.1</v>
       </c>
       <c r="I109" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="J109" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="K109" t="n">
         <v>22</v>
@@ -5282,7 +5282,7 @@
         <v>17.2</v>
       </c>
       <c r="J110" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="K110" t="n">
         <v>21.6</v>
@@ -5367,7 +5367,7 @@
         <v>14.2</v>
       </c>
       <c r="I112" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="J112" t="n">
         <v>18.2</v>
@@ -5449,13 +5449,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="H114" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="I114" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="J114" t="n">
         <v>17.3</v>
@@ -5584,13 +5584,13 @@
         <v>10.7</v>
       </c>
       <c r="H117" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="I117" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="J117" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="K117" t="n">
         <v>18.6</v>
@@ -5631,7 +5631,7 @@
         <v>12.2</v>
       </c>
       <c r="I118" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="J118" t="n">
         <v>15.4</v>
@@ -5986,7 +5986,7 @@
         <v>11.2</v>
       </c>
       <c r="J126" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K126" t="n">
         <v>14.1</v>
@@ -6033,7 +6033,7 @@
         <v>11.1</v>
       </c>
       <c r="K127" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="L127" t="n">
         <v>15.4</v>
@@ -6077,7 +6077,7 @@
         <v>10.7</v>
       </c>
       <c r="K128" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="L128" t="n">
         <v>14.9</v>
@@ -6112,7 +6112,7 @@
         <v>7.1</v>
       </c>
       <c r="H129" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I129" t="n">
         <v>10.1</v>
@@ -6206,7 +6206,7 @@
         <v>9.4</v>
       </c>
       <c r="J131" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K131" t="n">
         <v>11.6</v>
@@ -6244,13 +6244,13 @@
         <v>6.3</v>
       </c>
       <c r="H132" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="I132" t="n">
         <v>9</v>
       </c>
       <c r="J132" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K132" t="n">
         <v>11.2</v>
@@ -6335,7 +6335,7 @@
         <v>7.1</v>
       </c>
       <c r="I134" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J134" t="n">
         <v>8.9</v>
@@ -6376,10 +6376,10 @@
         <v>5.7</v>
       </c>
       <c r="H135" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="I135" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="J135" t="n">
         <v>8.699999999999999</v>
@@ -6423,7 +6423,7 @@
         <v>6.6</v>
       </c>
       <c r="I136" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J136" t="n">
         <v>8.6</v>
@@ -6470,7 +6470,7 @@
         <v>7.5</v>
       </c>
       <c r="J137" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="K137" t="n">
         <v>9.4</v>
@@ -6511,7 +6511,7 @@
         <v>6.2</v>
       </c>
       <c r="I138" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J138" t="n">
         <v>8.6</v>
@@ -6643,7 +6643,7 @@
         <v>5.7</v>
       </c>
       <c r="I141" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J141" t="n">
         <v>9</v>
@@ -6684,7 +6684,7 @@
         <v>4.8</v>
       </c>
       <c r="H142" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I142" t="n">
         <v>6.5</v>
@@ -6728,13 +6728,13 @@
         <v>4.8</v>
       </c>
       <c r="H143" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I143" t="n">
         <v>6.4</v>
       </c>
       <c r="J143" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K143" t="n">
         <v>8.800000000000001</v>
@@ -6778,7 +6778,7 @@
         <v>6.3</v>
       </c>
       <c r="J144" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="K144" t="n">
         <v>9</v>
@@ -6822,7 +6822,7 @@
         <v>6.3</v>
       </c>
       <c r="J145" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="K145" t="n">
         <v>9.199999999999999</v>
@@ -6866,7 +6866,7 @@
         <v>6.3</v>
       </c>
       <c r="J146" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="K146" t="n">
         <v>9.5</v>
@@ -6910,7 +6910,7 @@
         <v>6.3</v>
       </c>
       <c r="J147" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="K147" t="n">
         <v>9.9</v>
@@ -6948,13 +6948,13 @@
         <v>5.4</v>
       </c>
       <c r="H148" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I148" t="n">
         <v>6.4</v>
       </c>
       <c r="J148" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="K148" t="n">
         <v>10.4</v>
@@ -6989,16 +6989,16 @@
         <v>3.8</v>
       </c>
       <c r="G149" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H149" t="n">
         <v>5.4</v>
       </c>
       <c r="I149" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J149" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="K149" t="n">
         <v>11</v>
@@ -7033,16 +7033,16 @@
         <v>3.9</v>
       </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H150" t="n">
         <v>5.5</v>
       </c>
       <c r="I150" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J150" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="K150" t="n">
         <v>11.7</v>
@@ -7083,10 +7083,10 @@
         <v>5.7</v>
       </c>
       <c r="I151" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J151" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="K151" t="n">
         <v>12.6</v>
@@ -7124,13 +7124,13 @@
         <v>6.7</v>
       </c>
       <c r="H152" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I152" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J152" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="K152" t="n">
         <v>13.6</v>

--- a/polars.xlsx
+++ b/polars.xlsx
@@ -509,13 +509,13 @@
         <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F2" t="n">
         <v>6.3</v>
@@ -530,19 +530,19 @@
         <v>7.7</v>
       </c>
       <c r="J2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="K2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="N2" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>4.8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>5.9</v>
@@ -577,16 +577,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>4.8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="E4" t="n">
         <v>5.9</v>
@@ -618,19 +618,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="K4" t="n">
         <v>9.4</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="N4" t="n">
-        <v>11.1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -641,16 +641,16 @@
         <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="E5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="G5" t="n">
         <v>7.3</v>
@@ -662,19 +662,19 @@
         <v>8.5</v>
       </c>
       <c r="J5" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="K5" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="N5" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="6">
@@ -685,10 +685,10 @@
         <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
@@ -712,13 +712,13 @@
         <v>10.2</v>
       </c>
       <c r="L6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="N6" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         <v>4.7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -744,25 +744,25 @@
         <v>7.7</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I7" t="n">
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="K7" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="L7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N7" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
         <v>8.699999999999999</v>
@@ -794,19 +794,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="K8" t="n">
         <v>10.9</v>
       </c>
       <c r="L8" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="M8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="N8" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="9">
@@ -820,10 +820,10 @@
         <v>4.6</v>
       </c>
       <c r="D9" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F9" t="n">
         <v>7.3</v>
@@ -835,22 +835,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="J9" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="K9" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N9" t="n">
         <v>11.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>4.6</v>
       </c>
       <c r="D10" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="E10" t="n">
         <v>6.1</v>
@@ -882,19 +882,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
         <v>11.6</v>
       </c>
       <c r="L10" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="M10" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="11">
@@ -905,40 +905,40 @@
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="E11" t="n">
         <v>6.1</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="G11" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="J11" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="K11" t="n">
         <v>11.9</v>
       </c>
       <c r="L11" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="N11" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>4.5</v>
       </c>
       <c r="D12" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="E12" t="n">
         <v>6.1</v>
       </c>
       <c r="F12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="G12" t="n">
         <v>8.5</v>
@@ -970,19 +970,19 @@
         <v>10.2</v>
       </c>
       <c r="J12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
         <v>11.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11.8</v>
       </c>
     </row>
     <row r="13">
@@ -993,19 +993,19 @@
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D13" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="E13" t="n">
         <v>6.2</v>
       </c>
       <c r="F13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="G13" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H13" t="n">
         <v>9.300000000000001</v>
@@ -1014,16 +1014,16 @@
         <v>10.4</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="K13" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="L13" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="M13" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="N13" t="n">
         <v>11.9</v>
@@ -1037,40 +1037,40 @@
         <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D14" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="E14" t="n">
         <v>6.2</v>
       </c>
       <c r="F14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="G14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="J14" t="n">
         <v>12.2</v>
       </c>
       <c r="K14" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="L14" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="M14" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         <v>4.4</v>
       </c>
       <c r="D15" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="E15" t="n">
         <v>6.2</v>
       </c>
       <c r="F15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1102,19 +1102,19 @@
         <v>10.9</v>
       </c>
       <c r="J15" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="K15" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="L15" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="M15" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="N15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="16">
@@ -1125,16 +1125,16 @@
         <v>44</v>
       </c>
       <c r="C16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D16" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="E16" t="n">
         <v>6.3</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G16" t="n">
         <v>9.1</v>
@@ -1146,19 +1146,19 @@
         <v>11.1</v>
       </c>
       <c r="J16" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="K16" t="n">
         <v>13.4</v>
       </c>
       <c r="L16" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="M16" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="N16" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="17">
@@ -1172,7 +1172,7 @@
         <v>4.3</v>
       </c>
       <c r="D17" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
         <v>6.3</v>
@@ -1187,7 +1187,7 @@
         <v>9.9</v>
       </c>
       <c r="I17" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="J17" t="n">
         <v>13</v>
@@ -1196,13 +1196,13 @@
         <v>13.7</v>
       </c>
       <c r="L17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="M17" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="N17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
@@ -1216,10 +1216,10 @@
         <v>4.3</v>
       </c>
       <c r="D18" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F18" t="n">
         <v>8.300000000000001</v>
@@ -1234,19 +1234,19 @@
         <v>11.6</v>
       </c>
       <c r="J18" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="K18" t="n">
         <v>14</v>
       </c>
       <c r="L18" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="M18" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="N18" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="19">
@@ -1257,10 +1257,10 @@
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E19" t="n">
         <v>6.4</v>
@@ -1269,7 +1269,7 @@
         <v>8.4</v>
       </c>
       <c r="G19" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="H19" t="n">
         <v>10.2</v>
@@ -1281,16 +1281,16 @@
         <v>13.5</v>
       </c>
       <c r="K19" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="L19" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="M19" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="N19" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="20">
@@ -1304,13 +1304,13 @@
         <v>4.2</v>
       </c>
       <c r="D20" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="F20" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="G20" t="n">
         <v>9.699999999999999</v>
@@ -1319,22 +1319,22 @@
         <v>10.3</v>
       </c>
       <c r="I20" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="K20" t="n">
         <v>14.5</v>
       </c>
       <c r="L20" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="M20" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N20" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1348,16 +1348,16 @@
         <v>4.2</v>
       </c>
       <c r="D21" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="E21" t="n">
         <v>6.5</v>
       </c>
       <c r="F21" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="G21" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>10.5</v>
@@ -1366,19 +1366,19 @@
         <v>12.3</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="K21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="L21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="M21" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="N21" t="n">
         <v>13.2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -1392,19 +1392,19 @@
         <v>4.1</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E22" t="n">
         <v>6.5</v>
       </c>
       <c r="F22" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
       </c>
       <c r="H22" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="I22" t="n">
         <v>12.5</v>
@@ -1416,13 +1416,13 @@
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="M22" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N22" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="23">
@@ -1436,13 +1436,13 @@
         <v>4.1</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E23" t="n">
         <v>6.6</v>
       </c>
       <c r="F23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G23" t="n">
         <v>10.1</v>
@@ -1451,22 +1451,22 @@
         <v>10.8</v>
       </c>
       <c r="I23" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="J23" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="K23" t="n">
         <v>15.2</v>
       </c>
       <c r="L23" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="M23" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N23" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="24">
@@ -1480,37 +1480,37 @@
         <v>4.1</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="G24" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="H24" t="n">
         <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="J24" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="K24" t="n">
         <v>15.5</v>
       </c>
       <c r="L24" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="M24" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="N24" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="25">
@@ -1524,13 +1524,13 @@
         <v>4.1</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E25" t="n">
         <v>6.7</v>
       </c>
       <c r="F25" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
         <v>10.4</v>
@@ -1548,13 +1548,13 @@
         <v>15.7</v>
       </c>
       <c r="L25" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="M25" t="n">
         <v>14.3</v>
       </c>
       <c r="N25" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="26">
@@ -1568,19 +1568,19 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="G26" t="n">
         <v>10.5</v>
       </c>
       <c r="H26" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="I26" t="n">
         <v>13.4</v>
@@ -1598,7 +1598,7 @@
         <v>14.6</v>
       </c>
       <c r="N26" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="27">
@@ -1612,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E27" t="n">
         <v>6.8</v>
       </c>
       <c r="F27" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G27" t="n">
         <v>10.7</v>
@@ -1627,7 +1627,7 @@
         <v>11.5</v>
       </c>
       <c r="I27" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="J27" t="n">
         <v>15.3</v>
@@ -1639,10 +1639,10 @@
         <v>15.9</v>
       </c>
       <c r="M27" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="N27" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="28">
@@ -1656,13 +1656,13 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E28" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G28" t="n">
         <v>10.8</v>
@@ -1671,7 +1671,7 @@
         <v>11.7</v>
       </c>
       <c r="I28" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="J28" t="n">
         <v>15.5</v>
@@ -1686,7 +1686,7 @@
         <v>15.1</v>
       </c>
       <c r="N28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="29">
@@ -1697,19 +1697,19 @@
         <v>57</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E29" t="n">
         <v>6.9</v>
       </c>
       <c r="F29" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="H29" t="n">
         <v>11.9</v>
@@ -1727,10 +1727,10 @@
         <v>16.3</v>
       </c>
       <c r="M29" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N29" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="30">
@@ -1741,16 +1741,16 @@
         <v>58</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G30" t="n">
         <v>11.1</v>
@@ -1762,19 +1762,19 @@
         <v>14.3</v>
       </c>
       <c r="J30" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="K30" t="n">
         <v>16.7</v>
       </c>
       <c r="L30" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="M30" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="31">
@@ -1788,13 +1788,13 @@
         <v>3.9</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E31" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="G31" t="n">
         <v>11.2</v>
@@ -1806,16 +1806,16 @@
         <v>14.5</v>
       </c>
       <c r="J31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="K31" t="n">
         <v>16.9</v>
       </c>
       <c r="L31" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
@@ -1832,34 +1832,34 @@
         <v>3.9</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E32" t="n">
         <v>7.1</v>
       </c>
       <c r="F32" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="G32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="H32" t="n">
         <v>12.5</v>
       </c>
       <c r="I32" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="J32" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="K32" t="n">
         <v>17.1</v>
       </c>
       <c r="L32" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="M32" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="N32" t="n">
         <v>15.2</v>
@@ -1873,16 +1873,16 @@
         <v>61</v>
       </c>
       <c r="C33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E33" t="n">
         <v>7.2</v>
       </c>
       <c r="F33" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G33" t="n">
         <v>11.5</v>
@@ -1891,19 +1891,19 @@
         <v>12.7</v>
       </c>
       <c r="I33" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="J33" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="K33" t="n">
         <v>17.3</v>
       </c>
       <c r="L33" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="M33" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N33" t="n">
         <v>15.4</v>
@@ -1917,16 +1917,16 @@
         <v>62</v>
       </c>
       <c r="C34" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E34" t="n">
         <v>7.3</v>
       </c>
       <c r="F34" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G34" t="n">
         <v>11.6</v>
@@ -1938,19 +1938,19 @@
         <v>15.2</v>
       </c>
       <c r="J34" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M34" t="n">
         <v>16.7</v>
       </c>
-      <c r="K34" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="M34" t="n">
-        <v>16.5</v>
-      </c>
       <c r="N34" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="35">
@@ -1961,7 +1961,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="n">
         <v>5</v>
@@ -1970,10 +1970,10 @@
         <v>7.3</v>
       </c>
       <c r="F35" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="G35" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="H35" t="n">
         <v>13.1</v>
@@ -1982,19 +1982,19 @@
         <v>15.4</v>
       </c>
       <c r="J35" t="n">
+        <v>17</v>
+      </c>
+      <c r="K35" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="M35" t="n">
         <v>16.9</v>
       </c>
-      <c r="K35" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="L35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>16.7</v>
-      </c>
       <c r="N35" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="36">
@@ -2005,7 +2005,7 @@
         <v>64</v>
       </c>
       <c r="C36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -2014,7 +2014,7 @@
         <v>7.4</v>
       </c>
       <c r="F36" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
         <v>11.9</v>
@@ -2026,19 +2026,19 @@
         <v>15.6</v>
       </c>
       <c r="J36" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="K36" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L36" t="n">
         <v>17.8</v>
       </c>
-      <c r="L36" t="n">
-        <v>17.7</v>
-      </c>
       <c r="M36" t="n">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="N36" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -2049,16 +2049,16 @@
         <v>65</v>
       </c>
       <c r="C37" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E37" t="n">
         <v>7.5</v>
       </c>
       <c r="F37" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
         <v>12</v>
@@ -2070,19 +2070,19 @@
         <v>15.8</v>
       </c>
       <c r="J37" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="K37" t="n">
         <v>18</v>
       </c>
       <c r="L37" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="M37" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="N37" t="n">
-        <v>16.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="38">
@@ -2093,19 +2093,19 @@
         <v>66</v>
       </c>
       <c r="C38" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E38" t="n">
         <v>7.6</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="G38" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="H38" t="n">
         <v>13.7</v>
@@ -2114,19 +2114,19 @@
         <v>16</v>
       </c>
       <c r="J38" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="K38" t="n">
         <v>18.2</v>
       </c>
       <c r="L38" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="M38" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="N38" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39">
@@ -2137,16 +2137,16 @@
         <v>67</v>
       </c>
       <c r="C39" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E39" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F39" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="G39" t="n">
         <v>12.3</v>
@@ -2155,22 +2155,22 @@
         <v>13.9</v>
       </c>
       <c r="I39" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="J39" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="K39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="L39" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="M39" t="n">
-        <v>17.5</v>
+        <v>17.8</v>
       </c>
       <c r="N39" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="40">
@@ -2181,16 +2181,16 @@
         <v>68</v>
       </c>
       <c r="C40" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="E40" t="n">
         <v>7.7</v>
       </c>
       <c r="F40" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="G40" t="n">
         <v>12.4</v>
@@ -2202,19 +2202,19 @@
         <v>16.5</v>
       </c>
       <c r="J40" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="K40" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="L40" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="M40" t="n">
-        <v>17.7</v>
+        <v>18.1</v>
       </c>
       <c r="N40" t="n">
-        <v>17.2</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="41">
@@ -2225,40 +2225,40 @@
         <v>69</v>
       </c>
       <c r="C41" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D41" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="E41" t="n">
         <v>7.8</v>
       </c>
       <c r="F41" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="G41" t="n">
         <v>12.5</v>
       </c>
       <c r="H41" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="I41" t="n">
         <v>16.7</v>
       </c>
       <c r="J41" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K41" t="n">
         <v>18.7</v>
       </c>
       <c r="L41" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="M41" t="n">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
       <c r="N41" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="42">
@@ -2269,16 +2269,16 @@
         <v>70</v>
       </c>
       <c r="C42" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D42" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="E42" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="F42" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="G42" t="n">
         <v>12.7</v>
@@ -2290,19 +2290,19 @@
         <v>16.9</v>
       </c>
       <c r="J42" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="K42" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="L42" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="M42" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="N42" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="43">
@@ -2313,16 +2313,16 @@
         <v>71</v>
       </c>
       <c r="C43" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="E43" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="G43" t="n">
         <v>12.8</v>
@@ -2334,19 +2334,19 @@
         <v>17.1</v>
       </c>
       <c r="J43" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="L43" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="M43" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="N43" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="44">
@@ -2357,16 +2357,16 @@
         <v>72</v>
       </c>
       <c r="C44" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D44" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="F44" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="G44" t="n">
         <v>12.9</v>
@@ -2378,19 +2378,19 @@
         <v>17.3</v>
       </c>
       <c r="J44" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="K44" t="n">
         <v>19.2</v>
       </c>
       <c r="L44" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="M44" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="N44" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="45">
@@ -2401,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="C45" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D45" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="G45" t="n">
         <v>13.1</v>
@@ -2422,19 +2422,19 @@
         <v>17.5</v>
       </c>
       <c r="J45" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="K45" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="L45" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="M45" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="N45" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -2445,16 +2445,16 @@
         <v>74</v>
       </c>
       <c r="C46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="E46" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="G46" t="n">
         <v>13.2</v>
@@ -2466,19 +2466,19 @@
         <v>17.7</v>
       </c>
       <c r="J46" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="K46" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="L46" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="M46" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="N46" t="n">
-        <v>18.8</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="47">
@@ -2489,16 +2489,16 @@
         <v>75</v>
       </c>
       <c r="C47" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D47" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="E47" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="G47" t="n">
         <v>13.3</v>
@@ -2510,19 +2510,19 @@
         <v>17.9</v>
       </c>
       <c r="J47" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="K47" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="L47" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M47" t="n">
         <v>19.5</v>
       </c>
-      <c r="M47" t="n">
-        <v>19.1</v>
-      </c>
       <c r="N47" t="n">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="48">
@@ -2533,16 +2533,16 @@
         <v>76</v>
       </c>
       <c r="C48" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="E48" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="F48" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="G48" t="n">
         <v>13.4</v>
@@ -2554,19 +2554,19 @@
         <v>18.1</v>
       </c>
       <c r="J48" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="K48" t="n">
         <v>19.9</v>
       </c>
       <c r="L48" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" t="n">
         <v>19.7</v>
       </c>
-      <c r="M48" t="n">
-        <v>19.3</v>
-      </c>
       <c r="N48" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="49">
@@ -2577,16 +2577,16 @@
         <v>77</v>
       </c>
       <c r="C49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="E49" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="F49" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
         <v>13.6</v>
@@ -2598,19 +2598,19 @@
         <v>18.3</v>
       </c>
       <c r="J49" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="L49" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="M49" t="n">
         <v>19.9</v>
       </c>
-      <c r="M49" t="n">
-        <v>19.5</v>
-      </c>
       <c r="N49" t="n">
-        <v>19.6</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="50">
@@ -2621,16 +2621,16 @@
         <v>78</v>
       </c>
       <c r="C50" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D50" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="E50" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="F50" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
         <v>13.7</v>
@@ -2642,19 +2642,19 @@
         <v>18.5</v>
       </c>
       <c r="J50" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="K50" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="L50" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="M50" t="n">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="N50" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="51">
@@ -2665,16 +2665,16 @@
         <v>79</v>
       </c>
       <c r="C51" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="G51" t="n">
         <v>13.8</v>
@@ -2686,19 +2686,19 @@
         <v>18.7</v>
       </c>
       <c r="J51" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="K51" t="n">
         <v>20.4</v>
       </c>
       <c r="L51" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="M51" t="n">
         <v>20.2</v>
       </c>
-      <c r="M51" t="n">
-        <v>19.9</v>
-      </c>
       <c r="N51" t="n">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="52">
@@ -2709,40 +2709,40 @@
         <v>80</v>
       </c>
       <c r="C52" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="G52" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H52" t="n">
         <v>16.6</v>
       </c>
       <c r="I52" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="J52" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="K52" t="n">
         <v>20.6</v>
       </c>
       <c r="L52" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M52" t="n">
         <v>20.4</v>
       </c>
-      <c r="M52" t="n">
-        <v>20.1</v>
-      </c>
       <c r="N52" t="n">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="53">
@@ -2753,16 +2753,16 @@
         <v>81</v>
       </c>
       <c r="C53" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="E53" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="G53" t="n">
         <v>14.1</v>
@@ -2771,22 +2771,22 @@
         <v>16.8</v>
       </c>
       <c r="I53" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="J53" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="K53" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L53" t="n">
         <v>20.7</v>
       </c>
-      <c r="L53" t="n">
-        <v>20.5</v>
-      </c>
       <c r="M53" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="N53" t="n">
-        <v>20.6</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="54">
@@ -2797,16 +2797,16 @@
         <v>82</v>
       </c>
       <c r="C54" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D54" t="n">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="E54" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="F54" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="G54" t="n">
         <v>14.2</v>
@@ -2818,19 +2818,19 @@
         <v>19.2</v>
       </c>
       <c r="J54" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="K54" t="n">
         <v>20.9</v>
       </c>
       <c r="L54" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="M54" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="N54" t="n">
-        <v>20.8</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="55">
@@ -2841,16 +2841,16 @@
         <v>83</v>
       </c>
       <c r="C55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="E55" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="G55" t="n">
         <v>14.3</v>
@@ -2862,19 +2862,19 @@
         <v>19.4</v>
       </c>
       <c r="J55" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="K55" t="n">
         <v>21.1</v>
       </c>
       <c r="L55" t="n">
+        <v>21</v>
+      </c>
+      <c r="M55" t="n">
         <v>20.9</v>
       </c>
-      <c r="M55" t="n">
-        <v>20.7</v>
-      </c>
       <c r="N55" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="56">
@@ -2885,16 +2885,16 @@
         <v>84</v>
       </c>
       <c r="C56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="E56" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="G56" t="n">
         <v>14.4</v>
@@ -2903,22 +2903,22 @@
         <v>17.4</v>
       </c>
       <c r="I56" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="J56" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="K56" t="n">
         <v>21.3</v>
       </c>
       <c r="L56" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="M56" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N56" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="57">
@@ -2929,40 +2929,40 @@
         <v>85</v>
       </c>
       <c r="C57" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="E57" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="F57" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="G57" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="H57" t="n">
         <v>17.6</v>
       </c>
       <c r="I57" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="J57" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="K57" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="L57" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="M57" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N57" t="n">
-        <v>21.5</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="58">
@@ -2973,40 +2973,40 @@
         <v>86</v>
       </c>
       <c r="C58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="E58" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="G58" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="H58" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="I58" t="n">
         <v>19.9</v>
       </c>
       <c r="J58" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="K58" t="n">
         <v>21.6</v>
       </c>
       <c r="L58" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M58" t="n">
         <v>21.4</v>
       </c>
-      <c r="M58" t="n">
-        <v>21.3</v>
-      </c>
       <c r="N58" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
@@ -3020,13 +3020,13 @@
         <v>3.5</v>
       </c>
       <c r="D59" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E59" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="G59" t="n">
         <v>14.8</v>
@@ -3035,10 +3035,10 @@
         <v>17.9</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="J59" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="K59" t="n">
         <v>21.8</v>
@@ -3047,10 +3047,10 @@
         <v>21.6</v>
       </c>
       <c r="M59" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N59" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="60">
@@ -3064,13 +3064,13 @@
         <v>3.5</v>
       </c>
       <c r="D60" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E60" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="G60" t="n">
         <v>14.9</v>
@@ -3079,22 +3079,22 @@
         <v>18.1</v>
       </c>
       <c r="I60" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="J60" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="K60" t="n">
         <v>22</v>
       </c>
       <c r="L60" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="M60" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N60" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="61">
@@ -3108,28 +3108,28 @@
         <v>3.5</v>
       </c>
       <c r="D61" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="E61" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="F61" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="G61" t="n">
         <v>15</v>
       </c>
       <c r="H61" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="I61" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="J61" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="K61" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="L61" t="n">
         <v>21.9</v>
@@ -3138,7 +3138,7 @@
         <v>21.9</v>
       </c>
       <c r="N61" t="n">
-        <v>22.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="62">
@@ -3149,16 +3149,16 @@
         <v>90</v>
       </c>
       <c r="C62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D62" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E62" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="F62" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="G62" t="n">
         <v>15.1</v>
@@ -3167,22 +3167,22 @@
         <v>18.4</v>
       </c>
       <c r="I62" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="J62" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="K62" t="n">
         <v>22.3</v>
       </c>
       <c r="L62" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="M62" t="n">
         <v>22.1</v>
       </c>
       <c r="N62" t="n">
-        <v>22.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="63">
@@ -3193,16 +3193,16 @@
         <v>91</v>
       </c>
       <c r="C63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E63" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="F63" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="G63" t="n">
         <v>15.2</v>
@@ -3211,22 +3211,22 @@
         <v>18.5</v>
       </c>
       <c r="I63" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="J63" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="K63" t="n">
         <v>22.5</v>
       </c>
       <c r="L63" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="M63" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="N63" t="n">
-        <v>22.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -3237,16 +3237,16 @@
         <v>92</v>
       </c>
       <c r="C64" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D64" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F64" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
         <v>15.3</v>
@@ -3258,19 +3258,19 @@
         <v>20.8</v>
       </c>
       <c r="J64" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L64" t="n">
         <v>22.3</v>
       </c>
-      <c r="K64" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>22.4</v>
       </c>
-      <c r="M64" t="n">
-        <v>22.5</v>
-      </c>
       <c r="N64" t="n">
-        <v>23</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="65">
@@ -3284,13 +3284,13 @@
         <v>3.4</v>
       </c>
       <c r="D65" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E65" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F65" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
         <v>15.4</v>
@@ -3299,22 +3299,22 @@
         <v>18.8</v>
       </c>
       <c r="I65" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="J65" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L65" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="M65" t="n">
         <v>22.5</v>
       </c>
-      <c r="K65" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="L65" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="M65" t="n">
-        <v>22.7</v>
-      </c>
       <c r="N65" t="n">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="66">
@@ -3328,13 +3328,13 @@
         <v>3.4</v>
       </c>
       <c r="D66" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F66" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="G66" t="n">
         <v>15.5</v>
@@ -3343,22 +3343,22 @@
         <v>18.9</v>
       </c>
       <c r="I66" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="J66" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="K66" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="L66" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="M66" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="N66" t="n">
-        <v>23.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="67">
@@ -3372,37 +3372,37 @@
         <v>3.4</v>
       </c>
       <c r="D67" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E67" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="F67" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="G67" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="H67" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="I67" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="J67" t="n">
+        <v>23</v>
+      </c>
+      <c r="K67" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M67" t="n">
         <v>22.8</v>
       </c>
-      <c r="K67" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="L67" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="M67" t="n">
-        <v>23.1</v>
-      </c>
       <c r="N67" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="68">
@@ -3416,37 +3416,37 @@
         <v>3.4</v>
       </c>
       <c r="D68" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="G68" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="H68" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="I68" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="J68" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="M68" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="N68" t="n">
         <v>23</v>
-      </c>
-      <c r="K68" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="L68" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="M68" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="N68" t="n">
-        <v>23.6</v>
       </c>
     </row>
     <row r="69">
@@ -3460,37 +3460,37 @@
         <v>3.4</v>
       </c>
       <c r="D69" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="G69" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="H69" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="I69" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="J69" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M69" t="n">
+        <v>23</v>
+      </c>
+      <c r="N69" t="n">
         <v>23.1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="L69" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="M69" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="N69" t="n">
-        <v>23.8</v>
       </c>
     </row>
     <row r="70">
@@ -3501,40 +3501,40 @@
         <v>98</v>
       </c>
       <c r="C70" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D70" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F70" t="n">
         <v>12.2</v>
       </c>
       <c r="G70" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H70" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="I70" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="J70" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L70" t="n">
+        <v>23</v>
+      </c>
+      <c r="M70" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="N70" t="n">
         <v>23.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="L70" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="M70" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="N70" t="n">
-        <v>23.9</v>
       </c>
     </row>
     <row r="71">
@@ -3545,40 +3545,40 @@
         <v>99</v>
       </c>
       <c r="C71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D71" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E71" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="G71" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H71" t="n">
         <v>19.4</v>
       </c>
       <c r="I71" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="J71" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="K71" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="L71" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="M71" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="N71" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="72">
@@ -3592,37 +3592,37 @@
         <v>3.3</v>
       </c>
       <c r="D72" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="G72" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H72" t="n">
         <v>19.5</v>
       </c>
       <c r="I72" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="J72" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="K72" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="L72" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="M72" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="N72" t="n">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="73">
@@ -3636,37 +3636,37 @@
         <v>3.3</v>
       </c>
       <c r="D73" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F73" t="n">
         <v>12.3</v>
       </c>
       <c r="G73" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="H73" t="n">
         <v>19.6</v>
       </c>
       <c r="I73" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="J73" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="K73" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="L73" t="n">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="M73" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="N73" t="n">
-        <v>24.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="74">
@@ -3680,37 +3680,37 @@
         <v>3.3</v>
       </c>
       <c r="D74" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G74" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="H74" t="n">
         <v>19.6</v>
       </c>
       <c r="I74" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="J74" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="K74" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="L74" t="n">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="M74" t="n">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="N74" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="75">
@@ -3724,37 +3724,37 @@
         <v>3.3</v>
       </c>
       <c r="D75" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G75" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="H75" t="n">
         <v>19.7</v>
       </c>
       <c r="I75" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="J75" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="K75" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="L75" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="M75" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="N75" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="76">
@@ -3765,40 +3765,40 @@
         <v>104</v>
       </c>
       <c r="C76" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D76" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F76" t="n">
         <v>12.4</v>
       </c>
       <c r="G76" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="H76" t="n">
         <v>19.7</v>
       </c>
       <c r="I76" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="J76" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="K76" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="L76" t="n">
-        <v>24.4</v>
+        <v>23.7</v>
       </c>
       <c r="M76" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="N76" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="77">
@@ -3809,40 +3809,40 @@
         <v>105</v>
       </c>
       <c r="C77" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="E77" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F77" t="n">
         <v>12.4</v>
       </c>
       <c r="G77" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="H77" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="I77" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="J77" t="n">
         <v>24.1</v>
       </c>
       <c r="K77" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="L77" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="M77" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="N77" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="78">
@@ -3853,40 +3853,40 @@
         <v>106</v>
       </c>
       <c r="C78" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D78" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="E78" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G78" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H78" t="n">
         <v>19.8</v>
       </c>
       <c r="I78" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="J78" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="K78" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="L78" t="n">
-        <v>24.7</v>
+        <v>23.8</v>
       </c>
       <c r="M78" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N78" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="79">
@@ -3897,40 +3897,40 @@
         <v>107</v>
       </c>
       <c r="C79" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D79" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="E79" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G79" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H79" t="n">
         <v>19.8</v>
       </c>
       <c r="I79" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="J79" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="K79" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="L79" t="n">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="M79" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="N79" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="80">
@@ -3941,37 +3941,37 @@
         <v>108</v>
       </c>
       <c r="C80" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D80" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="E80" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G80" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H80" t="n">
         <v>19.8</v>
       </c>
       <c r="I80" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="J80" t="n">
         <v>24.3</v>
       </c>
       <c r="K80" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="L80" t="n">
-        <v>24.9</v>
+        <v>24</v>
       </c>
       <c r="M80" t="n">
-        <v>25.2</v>
+        <v>24.1</v>
       </c>
       <c r="N80" t="n">
         <v>24.6</v>
@@ -3985,37 +3985,37 @@
         <v>109</v>
       </c>
       <c r="C81" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D81" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E81" t="n">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G81" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H81" t="n">
         <v>19.8</v>
       </c>
       <c r="I81" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="J81" t="n">
         <v>24.3</v>
       </c>
       <c r="K81" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="L81" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M81" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="N81" t="n">
         <v>24.7</v>
@@ -4029,40 +4029,40 @@
         <v>110</v>
       </c>
       <c r="C82" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D82" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="E82" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="F82" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G82" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H82" t="n">
         <v>19.7</v>
       </c>
       <c r="I82" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="J82" t="n">
         <v>24.4</v>
       </c>
       <c r="K82" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="L82" t="n">
-        <v>25.2</v>
+        <v>24.1</v>
       </c>
       <c r="M82" t="n">
-        <v>25.4</v>
+        <v>24.2</v>
       </c>
       <c r="N82" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="83">
@@ -4073,40 +4073,40 @@
         <v>111</v>
       </c>
       <c r="C83" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D83" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="E83" t="n">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="F83" t="n">
         <v>12.4</v>
       </c>
       <c r="G83" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H83" t="n">
         <v>19.7</v>
       </c>
       <c r="I83" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="J83" t="n">
         <v>24.4</v>
       </c>
       <c r="K83" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="L83" t="n">
-        <v>25.3</v>
+        <v>24.2</v>
       </c>
       <c r="M83" t="n">
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
       <c r="N83" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="84">
@@ -4117,40 +4117,40 @@
         <v>112</v>
       </c>
       <c r="C84" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D84" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="E84" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F84" t="n">
         <v>12.4</v>
       </c>
       <c r="G84" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H84" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="I84" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="J84" t="n">
         <v>24.4</v>
       </c>
       <c r="K84" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="L84" t="n">
-        <v>25.4</v>
+        <v>24.2</v>
       </c>
       <c r="M84" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="N84" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="85">
@@ -4161,40 +4161,40 @@
         <v>113</v>
       </c>
       <c r="C85" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="E85" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="F85" t="n">
         <v>12.4</v>
       </c>
       <c r="G85" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="H85" t="n">
         <v>19.6</v>
       </c>
       <c r="I85" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="J85" t="n">
         <v>24.4</v>
       </c>
       <c r="K85" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="L85" t="n">
-        <v>25.4</v>
+        <v>24.2</v>
       </c>
       <c r="M85" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="N85" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="86">
@@ -4205,40 +4205,40 @@
         <v>114</v>
       </c>
       <c r="C86" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="E86" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="F86" t="n">
         <v>12.4</v>
       </c>
       <c r="G86" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="H86" t="n">
         <v>19.5</v>
       </c>
       <c r="I86" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="J86" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="M86" t="n">
         <v>24.4</v>
       </c>
-      <c r="K86" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="L86" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="M86" t="n">
-        <v>25.7</v>
-      </c>
       <c r="N86" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
@@ -4249,40 +4249,40 @@
         <v>115</v>
       </c>
       <c r="C87" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D87" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="E87" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G87" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="H87" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="I87" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="J87" t="n">
         <v>24.3</v>
       </c>
       <c r="K87" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="L87" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="M87" t="n">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="N87" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
@@ -4293,40 +4293,40 @@
         <v>116</v>
       </c>
       <c r="C88" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D88" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F88" t="n">
         <v>12.3</v>
       </c>
       <c r="G88" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="H88" t="n">
         <v>19.4</v>
       </c>
       <c r="I88" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="J88" t="n">
         <v>24.3</v>
       </c>
       <c r="K88" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="L88" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="M88" t="n">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="N88" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -4337,40 +4337,40 @@
         <v>117</v>
       </c>
       <c r="C89" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D89" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F89" t="n">
         <v>12.3</v>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="H89" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="I89" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="J89" t="n">
         <v>24.2</v>
       </c>
       <c r="K89" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="L89" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="M89" t="n">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="N89" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
@@ -4381,40 +4381,40 @@
         <v>118</v>
       </c>
       <c r="C90" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="E90" t="n">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="F90" t="n">
         <v>12.2</v>
       </c>
       <c r="G90" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H90" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="I90" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="J90" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="K90" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="L90" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="M90" t="n">
-        <v>25.8</v>
+        <v>24.4</v>
       </c>
       <c r="N90" t="n">
-        <v>24.3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -4425,40 +4425,40 @@
         <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D91" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="E91" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="F91" t="n">
         <v>12.2</v>
       </c>
       <c r="G91" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
       </c>
       <c r="I91" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="J91" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="K91" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="L91" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="M91" t="n">
-        <v>25.8</v>
+        <v>24.3</v>
       </c>
       <c r="N91" t="n">
-        <v>24.2</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="92">
@@ -4469,40 +4469,40 @@
         <v>120</v>
       </c>
       <c r="C92" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="E92" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="F92" t="n">
         <v>12.1</v>
       </c>
       <c r="G92" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="H92" t="n">
         <v>18.9</v>
       </c>
       <c r="I92" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="J92" t="n">
         <v>23.9</v>
       </c>
       <c r="K92" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="L92" t="n">
-        <v>25.7</v>
+        <v>24.3</v>
       </c>
       <c r="M92" t="n">
-        <v>25.8</v>
+        <v>24.3</v>
       </c>
       <c r="N92" t="n">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="93">
@@ -4513,40 +4513,40 @@
         <v>121</v>
       </c>
       <c r="C93" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="E93" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F93" t="n">
         <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="H93" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="I93" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="J93" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="K93" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="L93" t="n">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="M93" t="n">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="N93" t="n">
-        <v>24</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="94">
@@ -4557,40 +4557,40 @@
         <v>122</v>
       </c>
       <c r="C94" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F94" t="n">
         <v>12</v>
       </c>
       <c r="G94" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="H94" t="n">
         <v>18.6</v>
       </c>
       <c r="I94" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="J94" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="K94" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="L94" t="n">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="M94" t="n">
-        <v>25.7</v>
+        <v>24.2</v>
       </c>
       <c r="N94" t="n">
-        <v>23.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="95">
@@ -4601,40 +4601,40 @@
         <v>123</v>
       </c>
       <c r="C95" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D95" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="E95" t="n">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="F95" t="n">
         <v>11.9</v>
       </c>
       <c r="G95" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="H95" t="n">
         <v>18.4</v>
       </c>
       <c r="I95" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="J95" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="K95" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="L95" t="n">
-        <v>25.6</v>
+        <v>24.1</v>
       </c>
       <c r="M95" t="n">
-        <v>25.6</v>
+        <v>24.1</v>
       </c>
       <c r="N95" t="n">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="96">
@@ -4645,40 +4645,40 @@
         <v>124</v>
       </c>
       <c r="C96" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D96" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="E96" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="F96" t="n">
         <v>11.8</v>
       </c>
       <c r="G96" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="H96" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="I96" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="J96" t="n">
         <v>23.3</v>
       </c>
       <c r="K96" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="L96" t="n">
-        <v>25.6</v>
+        <v>24.1</v>
       </c>
       <c r="M96" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="N96" t="n">
-        <v>23.6</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="97">
@@ -4689,40 +4689,40 @@
         <v>125</v>
       </c>
       <c r="C97" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D97" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="E97" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="F97" t="n">
         <v>11.7</v>
       </c>
       <c r="G97" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="H97" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="I97" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="J97" t="n">
         <v>23.1</v>
       </c>
       <c r="K97" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="L97" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="M97" t="n">
-        <v>25.4</v>
+        <v>23.9</v>
       </c>
       <c r="N97" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="98">
@@ -4733,40 +4733,40 @@
         <v>126</v>
       </c>
       <c r="C98" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D98" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="E98" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F98" t="n">
         <v>11.6</v>
       </c>
       <c r="G98" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="H98" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="I98" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="J98" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="K98" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="L98" t="n">
-        <v>25.4</v>
+        <v>23.9</v>
       </c>
       <c r="M98" t="n">
-        <v>25.3</v>
+        <v>23.8</v>
       </c>
       <c r="N98" t="n">
-        <v>23.3</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="99">
@@ -4777,40 +4777,40 @@
         <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D99" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="E99" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="F99" t="n">
         <v>11.5</v>
       </c>
       <c r="G99" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H99" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="I99" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="J99" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="K99" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="L99" t="n">
-        <v>25.3</v>
+        <v>23.8</v>
       </c>
       <c r="M99" t="n">
-        <v>25.1</v>
+        <v>23.7</v>
       </c>
       <c r="N99" t="n">
-        <v>23.2</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="100">
@@ -4824,37 +4824,37 @@
         <v>3.4</v>
       </c>
       <c r="D100" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="E100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
         <v>11.4</v>
       </c>
       <c r="G100" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="H100" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="I100" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="J100" t="n">
         <v>22.4</v>
       </c>
       <c r="K100" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="L100" t="n">
-        <v>25.2</v>
+        <v>23.7</v>
       </c>
       <c r="M100" t="n">
-        <v>25</v>
+        <v>23.6</v>
       </c>
       <c r="N100" t="n">
-        <v>23</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="101">
@@ -4865,13 +4865,13 @@
         <v>129</v>
       </c>
       <c r="C101" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D101" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="E101" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="F101" t="n">
         <v>11.3</v>
@@ -4883,22 +4883,22 @@
         <v>17.2</v>
       </c>
       <c r="I101" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="J101" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="K101" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="L101" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="M101" t="n">
-        <v>24.8</v>
+        <v>23.5</v>
       </c>
       <c r="N101" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -4909,13 +4909,13 @@
         <v>130</v>
       </c>
       <c r="C102" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D102" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="F102" t="n">
         <v>11.2</v>
@@ -4924,25 +4924,25 @@
         <v>14.4</v>
       </c>
       <c r="H102" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="I102" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="J102" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="K102" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="L102" t="n">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="M102" t="n">
-        <v>24.6</v>
+        <v>23.3</v>
       </c>
       <c r="N102" t="n">
-        <v>22.6</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="103">
@@ -4956,37 +4956,37 @@
         <v>3.5</v>
       </c>
       <c r="D103" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="E103" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="F103" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="G103" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="H103" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="I103" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="J103" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="K103" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="L103" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="M103" t="n">
-        <v>24.4</v>
+        <v>23.1</v>
       </c>
       <c r="N103" t="n">
-        <v>22.4</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="104">
@@ -5000,10 +5000,10 @@
         <v>3.5</v>
       </c>
       <c r="D104" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="E104" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="F104" t="n">
         <v>10.9</v>
@@ -5012,25 +5012,25 @@
         <v>14</v>
       </c>
       <c r="H104" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="I104" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="J104" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="K104" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>23</v>
+      </c>
+      <c r="N104" t="n">
         <v>23.5</v>
-      </c>
-      <c r="L104" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="M104" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="N104" t="n">
-        <v>22.2</v>
       </c>
     </row>
     <row r="105">
@@ -5044,13 +5044,13 @@
         <v>3.5</v>
       </c>
       <c r="D105" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="E105" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="F105" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="G105" t="n">
         <v>13.8</v>
@@ -5059,22 +5059,22 @@
         <v>16.2</v>
       </c>
       <c r="I105" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="J105" t="n">
         <v>20.9</v>
       </c>
       <c r="K105" t="n">
+        <v>23</v>
+      </c>
+      <c r="L105" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="M105" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="N105" t="n">
         <v>23.3</v>
-      </c>
-      <c r="L105" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="N105" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -5088,10 +5088,10 @@
         <v>3.6</v>
       </c>
       <c r="D106" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="E106" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F106" t="n">
         <v>10.6</v>
@@ -5100,25 +5100,25 @@
         <v>13.6</v>
       </c>
       <c r="H106" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="I106" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="J106" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="K106" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="L106" t="n">
-        <v>24</v>
+        <v>22.7</v>
       </c>
       <c r="M106" t="n">
-        <v>23.6</v>
+        <v>22.6</v>
       </c>
       <c r="N106" t="n">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="107">
@@ -5132,37 +5132,37 @@
         <v>3.6</v>
       </c>
       <c r="D107" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="E107" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="F107" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="G107" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="H107" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="I107" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="J107" t="n">
         <v>20.2</v>
       </c>
       <c r="K107" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="L107" t="n">
-        <v>23.8</v>
+        <v>22.5</v>
       </c>
       <c r="M107" t="n">
-        <v>23.3</v>
+        <v>22.3</v>
       </c>
       <c r="N107" t="n">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="108">
@@ -5173,13 +5173,13 @@
         <v>136</v>
       </c>
       <c r="C108" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D108" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E108" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F108" t="n">
         <v>10.3</v>
@@ -5188,25 +5188,25 @@
         <v>13.1</v>
       </c>
       <c r="H108" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="I108" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="J108" t="n">
         <v>19.8</v>
       </c>
       <c r="K108" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="L108" t="n">
-        <v>23.5</v>
+        <v>22.2</v>
       </c>
       <c r="M108" t="n">
-        <v>23</v>
+        <v>22.1</v>
       </c>
       <c r="N108" t="n">
-        <v>21.3</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="109">
@@ -5220,10 +5220,10 @@
         <v>3.7</v>
       </c>
       <c r="D109" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="E109" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="F109" t="n">
         <v>10.1</v>
@@ -5232,7 +5232,7 @@
         <v>12.9</v>
       </c>
       <c r="H109" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="I109" t="n">
         <v>17.6</v>
@@ -5241,16 +5241,16 @@
         <v>19.4</v>
       </c>
       <c r="K109" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="L109" t="n">
         <v>22</v>
       </c>
-      <c r="L109" t="n">
-        <v>23.2</v>
-      </c>
       <c r="M109" t="n">
-        <v>22.7</v>
+        <v>21.9</v>
       </c>
       <c r="N109" t="n">
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="110">
@@ -5261,40 +5261,40 @@
         <v>138</v>
       </c>
       <c r="C110" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D110" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E110" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="G110" t="n">
         <v>12.6</v>
       </c>
       <c r="H110" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="I110" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="J110" t="n">
         <v>19</v>
       </c>
       <c r="K110" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="M110" t="n">
         <v>21.6</v>
       </c>
-      <c r="L110" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="M110" t="n">
-        <v>22.3</v>
-      </c>
       <c r="N110" t="n">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="111">
@@ -5305,13 +5305,13 @@
         <v>139</v>
       </c>
       <c r="C111" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D111" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="E111" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F111" t="n">
         <v>9.800000000000001</v>
@@ -5320,25 +5320,25 @@
         <v>12.4</v>
       </c>
       <c r="H111" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="I111" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="J111" t="n">
         <v>18.6</v>
       </c>
       <c r="K111" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="L111" t="n">
-        <v>22.6</v>
+        <v>21.5</v>
       </c>
       <c r="M111" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="N111" t="n">
-        <v>20.6</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="112">
@@ -5349,10 +5349,10 @@
         <v>140</v>
       </c>
       <c r="C112" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D112" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="E112" t="n">
         <v>6.1</v>
@@ -5364,7 +5364,7 @@
         <v>12.1</v>
       </c>
       <c r="H112" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="I112" t="n">
         <v>16.6</v>
@@ -5373,16 +5373,16 @@
         <v>18.2</v>
       </c>
       <c r="K112" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="L112" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="M112" t="n">
+        <v>21</v>
+      </c>
+      <c r="N112" t="n">
         <v>21.6</v>
-      </c>
-      <c r="N112" t="n">
-        <v>20.3</v>
       </c>
     </row>
     <row r="113">
@@ -5393,10 +5393,10 @@
         <v>141</v>
       </c>
       <c r="C113" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="E113" t="n">
         <v>5.9</v>
@@ -5408,25 +5408,25 @@
         <v>11.8</v>
       </c>
       <c r="H113" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="I113" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="J113" t="n">
         <v>17.7</v>
       </c>
       <c r="K113" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="L113" t="n">
-        <v>21.9</v>
+        <v>20.9</v>
       </c>
       <c r="M113" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="N113" t="n">
-        <v>20.1</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="114">
@@ -5437,13 +5437,13 @@
         <v>142</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="E114" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F114" t="n">
         <v>9.199999999999999</v>
@@ -5461,16 +5461,16 @@
         <v>17.3</v>
       </c>
       <c r="K114" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="L114" t="n">
-        <v>21.5</v>
+        <v>20.6</v>
       </c>
       <c r="M114" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="N114" t="n">
-        <v>19.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -5481,40 +5481,40 @@
         <v>143</v>
       </c>
       <c r="C115" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="D115" t="n">
-        <v>3.9</v>
-      </c>
       <c r="E115" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
       </c>
       <c r="G115" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="H115" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="I115" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="J115" t="n">
         <v>16.8</v>
       </c>
       <c r="K115" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="L115" t="n">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="M115" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N115" t="n">
-        <v>19.5</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="116">
@@ -5525,40 +5525,40 @@
         <v>144</v>
       </c>
       <c r="C116" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D116" t="n">
         <v>3.9</v>
       </c>
       <c r="E116" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F116" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="H116" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="I116" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="J116" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="K116" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="L116" t="n">
-        <v>20.7</v>
+        <v>19.9</v>
       </c>
       <c r="M116" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N116" t="n">
-        <v>19.2</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="117">
@@ -5569,19 +5569,19 @@
         <v>145</v>
       </c>
       <c r="C117" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D117" t="n">
         <v>3.9</v>
       </c>
       <c r="E117" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F117" t="n">
         <v>8.6</v>
       </c>
       <c r="G117" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="H117" t="n">
         <v>12.5</v>
@@ -5590,19 +5590,19 @@
         <v>14.8</v>
       </c>
       <c r="J117" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="K117" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="L117" t="n">
-        <v>20.3</v>
+        <v>19.6</v>
       </c>
       <c r="M117" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N117" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -5613,22 +5613,22 @@
         <v>146</v>
       </c>
       <c r="C118" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D118" t="n">
         <v>3.8</v>
       </c>
       <c r="E118" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
         <v>8.4</v>
       </c>
       <c r="G118" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="H118" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="I118" t="n">
         <v>14.4</v>
@@ -5640,13 +5640,13 @@
         <v>18.1</v>
       </c>
       <c r="L118" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="M118" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N118" t="n">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="119">
@@ -5657,40 +5657,40 @@
         <v>147</v>
       </c>
       <c r="C119" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D119" t="n">
         <v>3.8</v>
       </c>
       <c r="E119" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="F119" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H119" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I119" t="n">
         <v>14</v>
       </c>
       <c r="J119" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="K119" t="n">
         <v>17.6</v>
       </c>
       <c r="L119" t="n">
-        <v>19.4</v>
+        <v>18.9</v>
       </c>
       <c r="M119" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N119" t="n">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="120">
@@ -5701,40 +5701,40 @@
         <v>148</v>
       </c>
       <c r="C120" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D120" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="E120" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="G120" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="I120" t="n">
         <v>13.6</v>
       </c>
       <c r="J120" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="K120" t="n">
         <v>17.1</v>
       </c>
       <c r="L120" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="M120" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="N120" t="n">
-        <v>18.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121">
@@ -5745,40 +5745,40 @@
         <v>149</v>
       </c>
       <c r="C121" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D121" t="n">
         <v>3.7</v>
       </c>
       <c r="E121" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F121" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="G121" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="H121" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="I121" t="n">
         <v>13.2</v>
       </c>
       <c r="J121" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="K121" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="L121" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="M121" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="N121" t="n">
-        <v>17.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="122">
@@ -5789,40 +5789,40 @@
         <v>150</v>
       </c>
       <c r="C122" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D122" t="n">
         <v>3.7</v>
       </c>
       <c r="E122" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F122" t="n">
         <v>7.5</v>
       </c>
       <c r="G122" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H122" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="I122" t="n">
         <v>12.8</v>
       </c>
       <c r="J122" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="K122" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="L122" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="M122" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="N122" t="n">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="123">
@@ -5833,40 +5833,40 @@
         <v>151</v>
       </c>
       <c r="C123" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D123" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E123" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="F123" t="n">
         <v>7.3</v>
       </c>
       <c r="G123" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H123" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="I123" t="n">
         <v>12.4</v>
       </c>
       <c r="J123" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="K123" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="L123" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="M123" t="n">
-        <v>16.7</v>
+        <v>17.2</v>
       </c>
       <c r="N123" t="n">
-        <v>17.2</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="124">
@@ -5877,40 +5877,40 @@
         <v>152</v>
       </c>
       <c r="C124" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D124" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="E124" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F124" t="n">
         <v>7.1</v>
       </c>
       <c r="G124" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="H124" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="I124" t="n">
         <v>12</v>
       </c>
       <c r="J124" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="K124" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="L124" t="n">
         <v>16.9</v>
       </c>
       <c r="M124" t="n">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="N124" t="n">
-        <v>16.9</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="125">
@@ -5921,19 +5921,19 @@
         <v>153</v>
       </c>
       <c r="C125" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D125" t="n">
         <v>3.6</v>
       </c>
       <c r="E125" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="F125" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="G125" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="H125" t="n">
         <v>9.800000000000001</v>
@@ -5942,19 +5942,19 @@
         <v>11.6</v>
       </c>
       <c r="J125" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="K125" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="L125" t="n">
         <v>16.4</v>
       </c>
       <c r="M125" t="n">
-        <v>15.7</v>
+        <v>16.3</v>
       </c>
       <c r="N125" t="n">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="126">
@@ -5965,40 +5965,40 @@
         <v>154</v>
       </c>
       <c r="C126" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D126" t="n">
         <v>3.6</v>
       </c>
       <c r="E126" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F126" t="n">
         <v>6.6</v>
       </c>
       <c r="G126" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H126" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="I126" t="n">
         <v>11.2</v>
       </c>
       <c r="J126" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="K126" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="L126" t="n">
+        <v>16</v>
+      </c>
+      <c r="M126" t="n">
         <v>15.9</v>
       </c>
-      <c r="M126" t="n">
-        <v>15.2</v>
-      </c>
       <c r="N126" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="127">
@@ -6009,40 +6009,40 @@
         <v>155</v>
       </c>
       <c r="C127" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E127" t="n">
         <v>3.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>3.7</v>
       </c>
       <c r="F127" t="n">
         <v>6.4</v>
       </c>
       <c r="G127" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H127" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="I127" t="n">
         <v>10.8</v>
       </c>
       <c r="J127" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="K127" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="L127" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="M127" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="N127" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="128">
@@ -6053,40 +6053,40 @@
         <v>156</v>
       </c>
       <c r="C128" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D128" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E128" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F128" t="n">
         <v>6.2</v>
       </c>
       <c r="G128" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="H128" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I128" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="J128" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="K128" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="L128" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="M128" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="N128" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -6097,10 +6097,10 @@
         <v>157</v>
       </c>
       <c r="C129" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D129" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E129" t="n">
         <v>3.3</v>
@@ -6109,28 +6109,28 @@
         <v>6</v>
       </c>
       <c r="G129" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="H129" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="I129" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="J129" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="K129" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="L129" t="n">
-        <v>14.3</v>
+        <v>14.7</v>
       </c>
       <c r="M129" t="n">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="N129" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="130">
@@ -6141,10 +6141,10 @@
         <v>158</v>
       </c>
       <c r="C130" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D130" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E130" t="n">
         <v>3.1</v>
@@ -6153,7 +6153,7 @@
         <v>5.8</v>
       </c>
       <c r="G130" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="H130" t="n">
         <v>8.199999999999999</v>
@@ -6162,19 +6162,19 @@
         <v>9.699999999999999</v>
       </c>
       <c r="J130" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="K130" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="L130" t="n">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="M130" t="n">
-        <v>13.5</v>
+        <v>14.2</v>
       </c>
       <c r="N130" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="131">
@@ -6185,37 +6185,37 @@
         <v>159</v>
       </c>
       <c r="C131" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D131" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E131" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>5.6</v>
       </c>
       <c r="G131" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H131" t="n">
         <v>7.9</v>
       </c>
       <c r="I131" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J131" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="K131" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="L131" t="n">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="M131" t="n">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="N131" t="n">
         <v>14.8</v>
@@ -6229,40 +6229,40 @@
         <v>160</v>
       </c>
       <c r="C132" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D132" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E132" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="F132" t="n">
         <v>5.4</v>
       </c>
       <c r="G132" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H132" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I132" t="n">
         <v>9</v>
       </c>
       <c r="J132" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K132" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="L132" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="M132" t="n">
-        <v>12.7</v>
+        <v>13.4</v>
       </c>
       <c r="N132" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="133">
@@ -6273,40 +6273,40 @@
         <v>161</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D133" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E133" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="F133" t="n">
         <v>5.2</v>
       </c>
       <c r="G133" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="H133" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I133" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J133" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="K133" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="L133" t="n">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="M133" t="n">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="N133" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -6317,19 +6317,19 @@
         <v>162</v>
       </c>
       <c r="C134" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D134" t="n">
         <v>3.6</v>
       </c>
       <c r="E134" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="F134" t="n">
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H134" t="n">
         <v>7.1</v>
@@ -6338,19 +6338,19 @@
         <v>8.300000000000001</v>
       </c>
       <c r="J134" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="L134" t="n">
-        <v>11.9</v>
+        <v>12.5</v>
       </c>
       <c r="M134" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="N134" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="135">
@@ -6361,40 +6361,40 @@
         <v>163</v>
       </c>
       <c r="C135" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D135" t="n">
         <v>3.6</v>
       </c>
       <c r="E135" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="F135" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G135" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H135" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I135" t="n">
         <v>8</v>
       </c>
       <c r="J135" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="K135" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="L135" t="n">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="M135" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="N135" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="136">
@@ -6405,19 +6405,19 @@
         <v>164</v>
       </c>
       <c r="C136" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D136" t="n">
         <v>3.6</v>
       </c>
       <c r="E136" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="F136" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G136" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H136" t="n">
         <v>6.6</v>
@@ -6426,19 +6426,19 @@
         <v>7.7</v>
       </c>
       <c r="J136" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="K136" t="n">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="L136" t="n">
-        <v>11</v>
+        <v>11.6</v>
       </c>
       <c r="M136" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="N136" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="137">
@@ -6449,40 +6449,40 @@
         <v>165</v>
       </c>
       <c r="C137" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D137" t="n">
         <v>3.6</v>
       </c>
       <c r="E137" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="F137" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G137" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H137" t="n">
         <v>6.4</v>
       </c>
       <c r="I137" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J137" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L137" t="n">
-        <v>10.6</v>
+        <v>11.2</v>
       </c>
       <c r="M137" t="n">
         <v>11.3</v>
       </c>
       <c r="N137" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="138">
@@ -6493,19 +6493,19 @@
         <v>166</v>
       </c>
       <c r="C138" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D138" t="n">
         <v>3.6</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="F138" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G138" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>6.2</v>
@@ -6514,19 +6514,19 @@
         <v>7.2</v>
       </c>
       <c r="J138" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L138" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="M138" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="N138" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="139">
@@ -6537,19 +6537,19 @@
         <v>167</v>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D139" t="n">
         <v>3.7</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="F139" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H139" t="n">
         <v>6</v>
@@ -6558,19 +6558,19 @@
         <v>7</v>
       </c>
       <c r="J139" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="K139" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L139" t="n">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="M139" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="N139" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="140">
@@ -6581,19 +6581,19 @@
         <v>168</v>
       </c>
       <c r="C140" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D140" t="n">
         <v>3.7</v>
       </c>
       <c r="E140" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="F140" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G140" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H140" t="n">
         <v>5.8</v>
@@ -6602,19 +6602,19 @@
         <v>6.8</v>
       </c>
       <c r="J140" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K140" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="L140" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="M140" t="n">
-        <v>11.1</v>
+        <v>10.3</v>
       </c>
       <c r="N140" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="141">
@@ -6625,19 +6625,19 @@
         <v>169</v>
       </c>
       <c r="C141" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="D141" t="n">
         <v>3.7</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F141" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G141" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H141" t="n">
         <v>5.7</v>
@@ -6646,19 +6646,19 @@
         <v>6.6</v>
       </c>
       <c r="J141" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K141" t="n">
         <v>9</v>
       </c>
-      <c r="K141" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="L141" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M141" t="n">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="N141" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="142">
@@ -6669,16 +6669,16 @@
         <v>170</v>
       </c>
       <c r="C142" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="D142" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.3</v>
+        <v>2.1</v>
       </c>
       <c r="F142" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G142" t="n">
         <v>4.8</v>
@@ -6690,19 +6690,19 @@
         <v>6.5</v>
       </c>
       <c r="J142" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="K142" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="L142" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="M142" t="n">
-        <v>11.2</v>
+        <v>9.6</v>
       </c>
       <c r="N142" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="143">
@@ -6713,16 +6713,16 @@
         <v>171</v>
       </c>
       <c r="C143" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="D143" t="n">
         <v>3.8</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.7</v>
+        <v>2.1</v>
       </c>
       <c r="F143" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="G143" t="n">
         <v>4.8</v>
@@ -6734,19 +6734,19 @@
         <v>6.4</v>
       </c>
       <c r="J143" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L143" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="M143" t="n">
-        <v>11.4</v>
+        <v>9.4</v>
       </c>
       <c r="N143" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="144">
@@ -6757,19 +6757,19 @@
         <v>172</v>
       </c>
       <c r="C144" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D144" t="n">
         <v>3.8</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.1</v>
+        <v>2.1</v>
       </c>
       <c r="F144" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="G144" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H144" t="n">
         <v>5.4</v>
@@ -6787,10 +6787,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M144" t="n">
-        <v>11.7</v>
+        <v>9.1</v>
       </c>
       <c r="N144" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="145">
@@ -6801,22 +6801,22 @@
         <v>173</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D145" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F145" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G145" t="n">
         <v>4.9</v>
       </c>
       <c r="H145" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I145" t="n">
         <v>6.3</v>
@@ -6828,13 +6828,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="L145" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M145" t="n">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
       <c r="N145" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="146">
@@ -6845,19 +6845,19 @@
         <v>174</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D146" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="E146" t="n">
-        <v>-2</v>
+        <v>2.1</v>
       </c>
       <c r="F146" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G146" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H146" t="n">
         <v>5.3</v>
@@ -6866,16 +6866,16 @@
         <v>6.3</v>
       </c>
       <c r="J146" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="K146" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="L146" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="M146" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="M146" t="n">
-        <v>12.5</v>
       </c>
       <c r="N146" t="n">
         <v>9.9</v>
@@ -6889,16 +6889,16 @@
         <v>175</v>
       </c>
       <c r="C147" t="n">
-        <v>-0</v>
+        <v>0.2</v>
       </c>
       <c r="D147" t="n">
         <v>3.9</v>
       </c>
       <c r="E147" t="n">
-        <v>-2.4</v>
+        <v>2.2</v>
       </c>
       <c r="F147" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G147" t="n">
         <v>5.2</v>
@@ -6907,22 +6907,22 @@
         <v>5.3</v>
       </c>
       <c r="I147" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J147" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="K147" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L147" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M147" t="n">
-        <v>13.1</v>
+        <v>8.6</v>
       </c>
       <c r="N147" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="148">
@@ -6933,40 +6933,40 @@
         <v>176</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D148" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E148" t="n">
-        <v>-2.9</v>
+        <v>2.2</v>
       </c>
       <c r="F148" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G148" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.4</v>
       </c>
-      <c r="H148" t="n">
-        <v>5.3</v>
-      </c>
       <c r="I148" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J148" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K148" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="L148" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="M148" t="n">
-        <v>13.8</v>
+        <v>8.6</v>
       </c>
       <c r="N148" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="149">
@@ -6977,40 +6977,40 @@
         <v>177</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D149" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E149" t="n">
-        <v>-3.4</v>
+        <v>2.3</v>
       </c>
       <c r="F149" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G149" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H149" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I149" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J149" t="n">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="K149" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="L149" t="n">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M149" t="n">
-        <v>14.6</v>
+        <v>8.5</v>
       </c>
       <c r="N149" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="150">
@@ -7021,40 +7021,40 @@
         <v>178</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.9</v>
+        <v>-1.3</v>
       </c>
       <c r="D150" t="n">
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.9</v>
+        <v>2.4</v>
       </c>
       <c r="F150" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G150" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="H150" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I150" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="J150" t="n">
-        <v>15.7</v>
+        <v>15.2</v>
       </c>
       <c r="K150" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="L150" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="M150" t="n">
-        <v>15.6</v>
+        <v>8.5</v>
       </c>
       <c r="N150" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="151">
@@ -7065,40 +7065,40 @@
         <v>179</v>
       </c>
       <c r="C151" t="n">
-        <v>-2.6</v>
+        <v>-1.9</v>
       </c>
       <c r="D151" t="n">
         <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>-4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G151" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H151" t="n">
         <v>5.7</v>
       </c>
       <c r="I151" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J151" t="n">
-        <v>17.1</v>
+        <v>16.5</v>
       </c>
       <c r="K151" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="L151" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M151" t="n">
-        <v>16.7</v>
+        <v>8.6</v>
       </c>
       <c r="N151" t="n">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="152">
@@ -7109,40 +7109,40 @@
         <v>180</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.4</v>
+        <v>-2.5</v>
       </c>
       <c r="D152" t="n">
         <v>4</v>
       </c>
       <c r="E152" t="n">
-        <v>-5.1</v>
+        <v>2.6</v>
       </c>
       <c r="F152" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="G152" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="H152" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I152" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J152" t="n">
-        <v>18.6</v>
+        <v>17.9</v>
       </c>
       <c r="K152" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="L152" t="n">
-        <v>10.6</v>
+        <v>8.1</v>
       </c>
       <c r="M152" t="n">
-        <v>17.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N152" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
